--- a/data/trans_orig/IP19C02-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP19C02-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{007318E9-FA02-420E-AAA6-3163A3DA6DBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9583E368-F3E2-4ACB-A59B-6B8CB3E33BEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{7FDE9666-0100-4FC8-87F2-62C32CACB10F}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{F4C4832E-B48B-4C5D-9BC4-8C67C50F0D11}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -68,12 +68,117 @@
     <t>lím sup IC</t>
   </si>
   <si>
+    <t>Menos de 2</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>90,01%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>95,49%</t>
+  </si>
+  <si>
+    <t>77,46%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>85,95%</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>22,54%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>94,81%</t>
+  </si>
+  <si>
+    <t>88,34%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>92,97%</t>
+  </si>
+  <si>
+    <t>86,17%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>93,97%</t>
+  </si>
+  <si>
+    <t>89,48%</t>
+  </si>
+  <si>
+    <t>96,68%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
     <t>10/50</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
     <t>92,16%</t>
   </si>
   <si>
@@ -101,9 +206,6 @@
     <t>94,66%</t>
   </si>
   <si>
-    <t>Sí</t>
-  </si>
-  <si>
     <t>7,84%</t>
   </si>
   <si>
@@ -131,64 +233,61 @@
     <t>10,93%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>94,81%</t>
-  </si>
-  <si>
-    <t>88,34%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>92,97%</t>
-  </si>
-  <si>
-    <t>86,17%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>93,97%</t>
-  </si>
-  <si>
-    <t>89,48%</t>
-  </si>
-  <si>
-    <t>96,68%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>92,77%</t>
+  </si>
+  <si>
+    <t>87,47%</t>
+  </si>
+  <si>
+    <t>96,27%</t>
+  </si>
+  <si>
+    <t>93,62%</t>
+  </si>
+  <si>
+    <t>88,48%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>93,17%</t>
+  </si>
+  <si>
+    <t>89,86%</t>
+  </si>
+  <si>
+    <t>95,83%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -248,105 +347,6 @@
     <t>11,25%</t>
   </si>
   <si>
-    <t>Menos de 2</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>90,01%</t>
-  </si>
-  <si>
-    <t>95,49%</t>
-  </si>
-  <si>
-    <t>77,46%</t>
-  </si>
-  <si>
-    <t>97,47%</t>
-  </si>
-  <si>
-    <t>85,95%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>22,54%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>14,05%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>92,77%</t>
-  </si>
-  <si>
-    <t>87,47%</t>
-  </si>
-  <si>
-    <t>96,27%</t>
-  </si>
-  <si>
-    <t>93,62%</t>
-  </si>
-  <si>
-    <t>88,48%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>93,17%</t>
-  </si>
-  <si>
-    <t>89,86%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
     <t>93,33%</t>
   </si>
   <si>
@@ -398,6 +398,66 @@
     <t>Menores según su última visita al dentista fue por limpieza de boca en 2012 (Tasa respuesta: 48,93%)</t>
   </si>
   <si>
+    <t>87,39%</t>
+  </si>
+  <si>
+    <t>88,17%</t>
+  </si>
+  <si>
+    <t>93,64%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>93,63%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>93,86%</t>
+  </si>
+  <si>
+    <t>86,16%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
+  </si>
+  <si>
+    <t>96,67%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
     <t>93,69%</t>
   </si>
   <si>
@@ -446,46 +506,52 @@
     <t>7,91%</t>
   </si>
   <si>
-    <t>93,63%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>93,86%</t>
-  </si>
-  <si>
-    <t>86,16%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>93,75%</t>
-  </si>
-  <si>
-    <t>96,67%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>92,34%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>94,04%</t>
+  </si>
+  <si>
+    <t>88,29%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
   </si>
   <si>
     <t>89,8%</t>
@@ -542,72 +608,6 @@
     <t>13,32%</t>
   </si>
   <si>
-    <t>87,39%</t>
-  </si>
-  <si>
-    <t>88,17%</t>
-  </si>
-  <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>92,34%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>94,04%</t>
-  </si>
-  <si>
-    <t>88,29%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
     <t>93,66%</t>
   </si>
   <si>
@@ -665,6 +665,96 @@
     <t>Menores según su última visita al dentista fue por limpieza de boca en 2015 (Tasa respuesta: 48,78%)</t>
   </si>
   <si>
+    <t>93,24%</t>
+  </si>
+  <si>
+    <t>72,48%</t>
+  </si>
+  <si>
+    <t>93,13%</t>
+  </si>
+  <si>
+    <t>65,83%</t>
+  </si>
+  <si>
+    <t>93,19%</t>
+  </si>
+  <si>
+    <t>78,77%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>27,52%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>34,17%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>21,23%</t>
+  </si>
+  <si>
+    <t>74,12%</t>
+  </si>
+  <si>
+    <t>63,38%</t>
+  </si>
+  <si>
+    <t>82,79%</t>
+  </si>
+  <si>
+    <t>80,85%</t>
+  </si>
+  <si>
+    <t>71,1%</t>
+  </si>
+  <si>
+    <t>88,85%</t>
+  </si>
+  <si>
+    <t>77,36%</t>
+  </si>
+  <si>
+    <t>70,5%</t>
+  </si>
+  <si>
+    <t>83,84%</t>
+  </si>
+  <si>
+    <t>25,88%</t>
+  </si>
+  <si>
+    <t>17,21%</t>
+  </si>
+  <si>
+    <t>36,62%</t>
+  </si>
+  <si>
+    <t>19,15%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>28,9%</t>
+  </si>
+  <si>
+    <t>22,64%</t>
+  </si>
+  <si>
+    <t>16,16%</t>
+  </si>
+  <si>
+    <t>29,5%</t>
+  </si>
+  <si>
     <t>80,39%</t>
   </si>
   <si>
@@ -719,58 +809,52 @@
     <t>24,28%</t>
   </si>
   <si>
-    <t>74,12%</t>
-  </si>
-  <si>
-    <t>63,38%</t>
-  </si>
-  <si>
-    <t>82,79%</t>
-  </si>
-  <si>
-    <t>80,85%</t>
-  </si>
-  <si>
-    <t>71,1%</t>
-  </si>
-  <si>
-    <t>88,85%</t>
-  </si>
-  <si>
-    <t>77,36%</t>
-  </si>
-  <si>
-    <t>70,5%</t>
-  </si>
-  <si>
-    <t>83,84%</t>
-  </si>
-  <si>
-    <t>25,88%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>36,62%</t>
-  </si>
-  <si>
-    <t>19,15%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>28,9%</t>
-  </si>
-  <si>
-    <t>22,64%</t>
-  </si>
-  <si>
-    <t>16,16%</t>
-  </si>
-  <si>
-    <t>29,5%</t>
+    <t>78,92%</t>
+  </si>
+  <si>
+    <t>70,66%</t>
+  </si>
+  <si>
+    <t>82,77%</t>
+  </si>
+  <si>
+    <t>75,33%</t>
+  </si>
+  <si>
+    <t>89,06%</t>
+  </si>
+  <si>
+    <t>80,83%</t>
+  </si>
+  <si>
+    <t>75,32%</t>
+  </si>
+  <si>
+    <t>85,63%</t>
+  </si>
+  <si>
+    <t>21,08%</t>
+  </si>
+  <si>
+    <t>29,34%</t>
+  </si>
+  <si>
+    <t>17,23%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>24,67%</t>
+  </si>
+  <si>
+    <t>19,17%</t>
+  </si>
+  <si>
+    <t>14,37%</t>
+  </si>
+  <si>
+    <t>24,68%</t>
   </si>
   <si>
     <t>83,34%</t>
@@ -827,90 +911,6 @@
     <t>23,34%</t>
   </si>
   <si>
-    <t>93,24%</t>
-  </si>
-  <si>
-    <t>72,48%</t>
-  </si>
-  <si>
-    <t>93,13%</t>
-  </si>
-  <si>
-    <t>65,83%</t>
-  </si>
-  <si>
-    <t>93,19%</t>
-  </si>
-  <si>
-    <t>78,77%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>27,52%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>34,17%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>21,23%</t>
-  </si>
-  <si>
-    <t>78,92%</t>
-  </si>
-  <si>
-    <t>70,66%</t>
-  </si>
-  <si>
-    <t>82,77%</t>
-  </si>
-  <si>
-    <t>75,33%</t>
-  </si>
-  <si>
-    <t>89,06%</t>
-  </si>
-  <si>
-    <t>80,83%</t>
-  </si>
-  <si>
-    <t>75,32%</t>
-  </si>
-  <si>
-    <t>85,63%</t>
-  </si>
-  <si>
-    <t>21,08%</t>
-  </si>
-  <si>
-    <t>29,34%</t>
-  </si>
-  <si>
-    <t>17,23%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>24,67%</t>
-  </si>
-  <si>
-    <t>19,17%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>24,68%</t>
-  </si>
-  <si>
     <t>80,45%</t>
   </si>
   <si>
@@ -968,6 +968,96 @@
     <t>Menores según su última visita al dentista fue por limpieza de boca en 2023 (Tasa respuesta: 58,54%)</t>
   </si>
   <si>
+    <t>86,01%</t>
+  </si>
+  <si>
+    <t>42,62%</t>
+  </si>
+  <si>
+    <t>87,93%</t>
+  </si>
+  <si>
+    <t>58,77%</t>
+  </si>
+  <si>
+    <t>87,15%</t>
+  </si>
+  <si>
+    <t>67,32%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>57,38%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>41,23%</t>
+  </si>
+  <si>
+    <t>12,85%</t>
+  </si>
+  <si>
+    <t>32,68%</t>
+  </si>
+  <si>
+    <t>66,05%</t>
+  </si>
+  <si>
+    <t>54,47%</t>
+  </si>
+  <si>
+    <t>77,43%</t>
+  </si>
+  <si>
+    <t>64,2%</t>
+  </si>
+  <si>
+    <t>52,72%</t>
+  </si>
+  <si>
+    <t>74,67%</t>
+  </si>
+  <si>
+    <t>65,19%</t>
+  </si>
+  <si>
+    <t>57,45%</t>
+  </si>
+  <si>
+    <t>72,88%</t>
+  </si>
+  <si>
+    <t>33,95%</t>
+  </si>
+  <si>
+    <t>22,57%</t>
+  </si>
+  <si>
+    <t>45,53%</t>
+  </si>
+  <si>
+    <t>35,8%</t>
+  </si>
+  <si>
+    <t>25,33%</t>
+  </si>
+  <si>
+    <t>47,28%</t>
+  </si>
+  <si>
+    <t>34,81%</t>
+  </si>
+  <si>
+    <t>27,12%</t>
+  </si>
+  <si>
+    <t>42,55%</t>
+  </si>
+  <si>
     <t>55,46%</t>
   </si>
   <si>
@@ -1022,58 +1112,58 @@
     <t>47,53%</t>
   </si>
   <si>
-    <t>66,05%</t>
-  </si>
-  <si>
-    <t>54,47%</t>
-  </si>
-  <si>
-    <t>77,43%</t>
-  </si>
-  <si>
-    <t>64,2%</t>
-  </si>
-  <si>
-    <t>52,72%</t>
-  </si>
-  <si>
-    <t>74,67%</t>
-  </si>
-  <si>
-    <t>65,19%</t>
-  </si>
-  <si>
-    <t>57,45%</t>
-  </si>
-  <si>
-    <t>72,88%</t>
-  </si>
-  <si>
-    <t>33,95%</t>
-  </si>
-  <si>
-    <t>22,57%</t>
-  </si>
-  <si>
-    <t>45,53%</t>
-  </si>
-  <si>
-    <t>35,8%</t>
-  </si>
-  <si>
-    <t>25,33%</t>
-  </si>
-  <si>
-    <t>47,28%</t>
-  </si>
-  <si>
-    <t>34,81%</t>
-  </si>
-  <si>
-    <t>27,12%</t>
-  </si>
-  <si>
-    <t>42,55%</t>
+    <t>78,17%</t>
+  </si>
+  <si>
+    <t>66,5%</t>
+  </si>
+  <si>
+    <t>85,62%</t>
+  </si>
+  <si>
+    <t>79,6%</t>
+  </si>
+  <si>
+    <t>71,67%</t>
+  </si>
+  <si>
+    <t>86,69%</t>
+  </si>
+  <si>
+    <t>78,86%</t>
+  </si>
+  <si>
+    <t>71,95%</t>
+  </si>
+  <si>
+    <t>84,42%</t>
+  </si>
+  <si>
+    <t>21,83%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>33,5%</t>
+  </si>
+  <si>
+    <t>20,4%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>28,33%</t>
+  </si>
+  <si>
+    <t>21,14%</t>
+  </si>
+  <si>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>28,05%</t>
   </si>
   <si>
     <t>69,71%</t>
@@ -1128,96 +1218,6 @@
   </si>
   <si>
     <t>38,41%</t>
-  </si>
-  <si>
-    <t>86,01%</t>
-  </si>
-  <si>
-    <t>42,62%</t>
-  </si>
-  <si>
-    <t>87,93%</t>
-  </si>
-  <si>
-    <t>58,77%</t>
-  </si>
-  <si>
-    <t>87,15%</t>
-  </si>
-  <si>
-    <t>67,32%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>57,38%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>41,23%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>32,68%</t>
-  </si>
-  <si>
-    <t>78,17%</t>
-  </si>
-  <si>
-    <t>66,5%</t>
-  </si>
-  <si>
-    <t>85,62%</t>
-  </si>
-  <si>
-    <t>79,6%</t>
-  </si>
-  <si>
-    <t>71,67%</t>
-  </si>
-  <si>
-    <t>86,69%</t>
-  </si>
-  <si>
-    <t>78,86%</t>
-  </si>
-  <si>
-    <t>71,95%</t>
-  </si>
-  <si>
-    <t>84,42%</t>
-  </si>
-  <si>
-    <t>21,83%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>33,5%</t>
-  </si>
-  <si>
-    <t>20,4%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>28,33%</t>
-  </si>
-  <si>
-    <t>21,14%</t>
-  </si>
-  <si>
-    <t>15,58%</t>
-  </si>
-  <si>
-    <t>28,05%</t>
   </si>
   <si>
     <t>66,29%</t>
@@ -1663,7 +1663,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1E93FA5-CE12-4DF8-AA18-A550EBEDDE05}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61793582-6762-4CBC-A87B-57574DD1B76C}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1781,10 +1781,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>157</v>
+        <v>18</v>
       </c>
       <c r="D4" s="7">
-        <v>102884</v>
+        <v>13729</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1796,10 +1796,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>160</v>
+        <v>21</v>
       </c>
       <c r="I4" s="7">
-        <v>101050</v>
+        <v>16768</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1808,73 +1808,73 @@
         <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M4" s="7">
+        <v>39</v>
+      </c>
+      <c r="N4" s="7">
+        <v>30497</v>
+      </c>
+      <c r="O4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="M4" s="7">
-        <v>317</v>
-      </c>
-      <c r="N4" s="7">
-        <v>203934</v>
-      </c>
-      <c r="O4" s="7" t="s">
+      <c r="P4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="P4" s="7" t="s">
-        <v>18</v>
-      </c>
       <c r="Q4" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="7">
+        <v>0</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="7">
-        <v>13</v>
-      </c>
-      <c r="D5" s="7">
-        <v>8747</v>
-      </c>
-      <c r="E5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="H5" s="7">
+        <v>1</v>
+      </c>
+      <c r="I5" s="7">
+        <v>791</v>
+      </c>
+      <c r="J5" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="K5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="7">
-        <v>14</v>
-      </c>
-      <c r="I5" s="7">
-        <v>9011</v>
-      </c>
-      <c r="J5" s="7" t="s">
+      <c r="M5" s="7">
+        <v>1</v>
+      </c>
+      <c r="N5" s="7">
+        <v>791</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="P5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>25</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="M5" s="7">
-        <v>27</v>
-      </c>
-      <c r="N5" s="7">
-        <v>17758</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1883,54 +1883,54 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>170</v>
+        <v>18</v>
       </c>
       <c r="D6" s="7">
-        <v>111631</v>
+        <v>13729</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H6" s="7">
-        <v>174</v>
+        <v>22</v>
       </c>
       <c r="I6" s="7">
-        <v>110061</v>
+        <v>17559</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M6" s="7">
-        <v>344</v>
+        <v>40</v>
       </c>
       <c r="N6" s="7">
-        <v>221692</v>
+        <v>31288</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -1942,13 +1942,13 @@
         <v>64908</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H7" s="7">
         <v>81</v>
@@ -1957,13 +1957,13 @@
         <v>54028</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="M7" s="7">
         <v>180</v>
@@ -1972,19 +1972,19 @@
         <v>118937</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C8" s="7">
         <v>5</v>
@@ -1993,13 +1993,13 @@
         <v>3551</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H8" s="7">
         <v>6</v>
@@ -2008,13 +2008,13 @@
         <v>4085</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="M8" s="7">
         <v>11</v>
@@ -2023,13 +2023,13 @@
         <v>7636</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2044,13 +2044,13 @@
         <v>68459</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H9" s="7">
         <v>87</v>
@@ -2059,13 +2059,13 @@
         <v>58113</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M9" s="7">
         <v>191</v>
@@ -2074,117 +2074,117 @@
         <v>126573</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>122</v>
+        <v>157</v>
       </c>
       <c r="D10" s="7">
-        <v>83826</v>
+        <v>102884</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H10" s="7">
+        <v>160</v>
+      </c>
+      <c r="I10" s="7">
+        <v>101050</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>317</v>
+      </c>
+      <c r="N10" s="7">
+        <v>203934</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="H10" s="7">
-        <v>114</v>
-      </c>
-      <c r="I10" s="7">
-        <v>88553</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="M10" s="7">
-        <v>236</v>
-      </c>
-      <c r="N10" s="7">
-        <v>172379</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D11" s="7">
-        <v>6217</v>
+        <v>8747</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H11" s="7">
+        <v>14</v>
+      </c>
+      <c r="I11" s="7">
+        <v>9011</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>27</v>
+      </c>
+      <c r="N11" s="7">
+        <v>17758</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="H11" s="7">
-        <v>10</v>
-      </c>
-      <c r="I11" s="7">
-        <v>7436</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="M11" s="7">
-        <v>19</v>
-      </c>
-      <c r="N11" s="7">
-        <v>13653</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2193,150 +2193,150 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>131</v>
+        <v>170</v>
       </c>
       <c r="D12" s="7">
-        <v>90043</v>
+        <v>111631</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H12" s="7">
-        <v>124</v>
+        <v>174</v>
       </c>
       <c r="I12" s="7">
-        <v>95989</v>
+        <v>110061</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M12" s="7">
-        <v>255</v>
+        <v>344</v>
       </c>
       <c r="N12" s="7">
-        <v>186032</v>
+        <v>221692</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>18</v>
+        <v>113</v>
       </c>
       <c r="D13" s="7">
-        <v>13729</v>
+        <v>72243</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="H13" s="7">
-        <v>21</v>
+        <v>107</v>
       </c>
       <c r="I13" s="7">
-        <v>16768</v>
+        <v>64790</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>70</v>
       </c>
       <c r="M13" s="7">
-        <v>39</v>
+        <v>220</v>
       </c>
       <c r="N13" s="7">
-        <v>30497</v>
+        <v>137032</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D14" s="7">
-        <v>0</v>
+        <v>5626</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="H14" s="7">
+        <v>8</v>
+      </c>
+      <c r="I14" s="7">
+        <v>4418</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="H14" s="7">
-        <v>1</v>
-      </c>
-      <c r="I14" s="7">
-        <v>791</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="K14" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="L14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>17</v>
+      </c>
+      <c r="N14" s="7">
+        <v>10045</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="M14" s="7">
-        <v>1</v>
-      </c>
-      <c r="N14" s="7">
-        <v>791</v>
-      </c>
-      <c r="O14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>82</v>
@@ -2348,49 +2348,49 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>18</v>
+        <v>122</v>
       </c>
       <c r="D15" s="7">
-        <v>13729</v>
+        <v>77869</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H15" s="7">
-        <v>22</v>
+        <v>115</v>
       </c>
       <c r="I15" s="7">
-        <v>17559</v>
+        <v>69208</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M15" s="7">
-        <v>40</v>
+        <v>237</v>
       </c>
       <c r="N15" s="7">
-        <v>31288</v>
+        <v>147077</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2401,10 +2401,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="D16" s="7">
-        <v>72243</v>
+        <v>83826</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>84</v>
@@ -2416,10 +2416,10 @@
         <v>86</v>
       </c>
       <c r="H16" s="7">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="I16" s="7">
-        <v>64790</v>
+        <v>88553</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>87</v>
@@ -2431,10 +2431,10 @@
         <v>89</v>
       </c>
       <c r="M16" s="7">
-        <v>220</v>
+        <v>236</v>
       </c>
       <c r="N16" s="7">
-        <v>137032</v>
+        <v>172379</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>90</v>
@@ -2449,13 +2449,13 @@
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C17" s="7">
         <v>9</v>
       </c>
       <c r="D17" s="7">
-        <v>5626</v>
+        <v>6217</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>93</v>
@@ -2467,10 +2467,10 @@
         <v>95</v>
       </c>
       <c r="H17" s="7">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I17" s="7">
-        <v>4418</v>
+        <v>7436</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>96</v>
@@ -2482,10 +2482,10 @@
         <v>98</v>
       </c>
       <c r="M17" s="7">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="N17" s="7">
-        <v>10045</v>
+        <v>13653</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>99</v>
@@ -2503,49 +2503,49 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="D18" s="7">
-        <v>77869</v>
+        <v>90043</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H18" s="7">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="I18" s="7">
-        <v>69208</v>
+        <v>95989</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M18" s="7">
-        <v>237</v>
+        <v>255</v>
       </c>
       <c r="N18" s="7">
-        <v>147077</v>
+        <v>186032</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2577,7 +2577,7 @@
         <v>325189</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>105</v>
@@ -2604,7 +2604,7 @@
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C20" s="7">
         <v>36</v>
@@ -2628,7 +2628,7 @@
         <v>25741</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>66</v>
+        <v>99</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>113</v>
@@ -2664,13 +2664,13 @@
         <v>361731</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H21" s="7">
         <v>522</v>
@@ -2679,13 +2679,13 @@
         <v>350930</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M21" s="7">
         <v>1067</v>
@@ -2694,13 +2694,13 @@
         <v>712661</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -2721,7 +2721,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE04D7C2-9B5C-4FC1-BA5A-1D63468F9B4D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DA72EBC-4CE4-4F7E-BBD5-115E04DC4206}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2839,100 +2839,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>157</v>
+        <v>14</v>
       </c>
       <c r="D4" s="7">
-        <v>107465</v>
+        <v>13040</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="7">
+        <v>15</v>
+      </c>
+      <c r="I4" s="7">
+        <v>12890</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="L4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M4" s="7">
+        <v>29</v>
+      </c>
+      <c r="N4" s="7">
+        <v>25931</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="H4" s="7">
-        <v>162</v>
-      </c>
-      <c r="I4" s="7">
-        <v>107342</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="M4" s="7">
-        <v>319</v>
-      </c>
-      <c r="N4" s="7">
-        <v>214807</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>125</v>
-      </c>
       <c r="Q4" s="7" t="s">
-        <v>126</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="7">
+        <v>0</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="7">
-        <v>11</v>
-      </c>
-      <c r="D5" s="7">
-        <v>7241</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>128</v>
-      </c>
       <c r="G5" s="7" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="H5" s="7">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I5" s="7">
-        <v>4511</v>
+        <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>130</v>
+        <v>19</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>131</v>
+        <v>20</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="M5" s="7">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="N5" s="7">
-        <v>11752</v>
+        <v>0</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>133</v>
+        <v>20</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2941,54 +2941,54 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>168</v>
+        <v>14</v>
       </c>
       <c r="D6" s="7">
-        <v>114706</v>
+        <v>13040</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H6" s="7">
-        <v>169</v>
+        <v>15</v>
       </c>
       <c r="I6" s="7">
-        <v>111853</v>
+        <v>12890</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M6" s="7">
-        <v>337</v>
+        <v>29</v>
       </c>
       <c r="N6" s="7">
-        <v>226559</v>
+        <v>25931</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -3000,13 +3000,13 @@
         <v>58242</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>52</v>
+        <v>85</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="H7" s="7">
         <v>79</v>
@@ -3015,13 +3015,13 @@
         <v>57283</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="M7" s="7">
         <v>161</v>
@@ -3030,19 +3030,19 @@
         <v>115525</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C8" s="7">
         <v>6</v>
@@ -3051,13 +3051,13 @@
         <v>3960</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>62</v>
+        <v>95</v>
       </c>
       <c r="H8" s="7">
         <v>5</v>
@@ -3066,13 +3066,13 @@
         <v>3744</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="M8" s="7">
         <v>11</v>
@@ -3081,13 +3081,13 @@
         <v>7704</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3102,13 +3102,13 @@
         <v>62202</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H9" s="7">
         <v>84</v>
@@ -3117,13 +3117,13 @@
         <v>61027</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M9" s="7">
         <v>172</v>
@@ -3132,117 +3132,117 @@
         <v>123229</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>118</v>
+        <v>157</v>
       </c>
       <c r="D10" s="7">
-        <v>86474</v>
+        <v>107465</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="H10" s="7">
-        <v>110</v>
+        <v>162</v>
       </c>
       <c r="I10" s="7">
-        <v>85314</v>
+        <v>107342</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="M10" s="7">
-        <v>228</v>
+        <v>319</v>
       </c>
       <c r="N10" s="7">
-        <v>171787</v>
+        <v>214807</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>155</v>
+        <v>27</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D11" s="7">
-        <v>9827</v>
+        <v>7241</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="H11" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I11" s="7">
-        <v>7663</v>
+        <v>4511</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="M11" s="7">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="N11" s="7">
-        <v>17490</v>
+        <v>11752</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>164</v>
+        <v>36</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3251,153 +3251,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>131</v>
+        <v>168</v>
       </c>
       <c r="D12" s="7">
-        <v>96301</v>
+        <v>114706</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H12" s="7">
-        <v>120</v>
+        <v>169</v>
       </c>
       <c r="I12" s="7">
-        <v>92977</v>
+        <v>111853</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M12" s="7">
-        <v>251</v>
+        <v>337</v>
       </c>
       <c r="N12" s="7">
-        <v>189277</v>
+        <v>226559</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>14</v>
+        <v>120</v>
       </c>
       <c r="D13" s="7">
-        <v>13040</v>
+        <v>77569</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>70</v>
+        <v>155</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>30</v>
+        <v>157</v>
       </c>
       <c r="H13" s="7">
-        <v>15</v>
+        <v>108</v>
       </c>
       <c r="I13" s="7">
-        <v>12890</v>
+        <v>70054</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>70</v>
+        <v>158</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>30</v>
+        <v>160</v>
       </c>
       <c r="M13" s="7">
-        <v>29</v>
+        <v>228</v>
       </c>
       <c r="N13" s="7">
-        <v>25931</v>
+        <v>147623</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>70</v>
+        <v>161</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>169</v>
+        <v>46</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>30</v>
+        <v>162</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D14" s="7">
-        <v>0</v>
+        <v>2184</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>76</v>
+        <v>163</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>77</v>
+        <v>164</v>
       </c>
       <c r="G14" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="H14" s="7">
+        <v>7</v>
+      </c>
+      <c r="I14" s="7">
+        <v>4443</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="M14" s="7">
+        <v>10</v>
+      </c>
+      <c r="N14" s="7">
+        <v>6627</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="H14" s="7">
-        <v>0</v>
-      </c>
-      <c r="I14" s="7">
-        <v>0</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="M14" s="7">
-        <v>0</v>
-      </c>
-      <c r="N14" s="7">
-        <v>0</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>77</v>
-      </c>
       <c r="Q14" s="7" t="s">
-        <v>172</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3406,49 +3406,49 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>14</v>
+        <v>123</v>
       </c>
       <c r="D15" s="7">
-        <v>13040</v>
+        <v>79753</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H15" s="7">
-        <v>15</v>
+        <v>115</v>
       </c>
       <c r="I15" s="7">
-        <v>12890</v>
+        <v>74497</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M15" s="7">
-        <v>29</v>
+        <v>238</v>
       </c>
       <c r="N15" s="7">
-        <v>25931</v>
+        <v>154250</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3459,100 +3459,100 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D16" s="7">
-        <v>77569</v>
+        <v>86474</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="H16" s="7">
+        <v>110</v>
+      </c>
+      <c r="I16" s="7">
+        <v>85314</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="H16" s="7">
-        <v>108</v>
-      </c>
-      <c r="I16" s="7">
-        <v>70054</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>178</v>
       </c>
       <c r="M16" s="7">
         <v>228</v>
       </c>
       <c r="N16" s="7">
-        <v>147623</v>
+        <v>171787</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="D17" s="7">
-        <v>2184</v>
+        <v>9827</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="H17" s="7">
+        <v>10</v>
+      </c>
+      <c r="I17" s="7">
+        <v>7663</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="H17" s="7">
-        <v>7</v>
-      </c>
-      <c r="I17" s="7">
-        <v>4443</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>23</v>
+      </c>
+      <c r="N17" s="7">
+        <v>17490</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="M17" s="7">
-        <v>10</v>
-      </c>
-      <c r="N17" s="7">
-        <v>6627</v>
-      </c>
-      <c r="O17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3561,49 +3561,49 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="D18" s="7">
-        <v>79753</v>
+        <v>96301</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H18" s="7">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="I18" s="7">
-        <v>74497</v>
+        <v>92977</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M18" s="7">
-        <v>238</v>
+        <v>251</v>
       </c>
       <c r="N18" s="7">
-        <v>154250</v>
+        <v>189277</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3662,7 +3662,7 @@
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C20" s="7">
         <v>33</v>
@@ -3722,13 +3722,13 @@
         <v>366002</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H21" s="7">
         <v>503</v>
@@ -3737,13 +3737,13 @@
         <v>353244</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M21" s="7">
         <v>1027</v>
@@ -3752,13 +3752,13 @@
         <v>719246</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -3779,7 +3779,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19D88271-1F72-44C1-84DA-800D2F3121F8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D5C7A27-CF2A-4F32-917B-F9FFCC2F6DDC}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3897,10 +3897,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>126</v>
+        <v>17</v>
       </c>
       <c r="D4" s="7">
-        <v>87297</v>
+        <v>14431</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>208</v>
@@ -3909,88 +3909,88 @@
         <v>209</v>
       </c>
       <c r="G4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="7">
+        <v>15</v>
+      </c>
+      <c r="I4" s="7">
+        <v>13972</v>
+      </c>
+      <c r="J4" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="H4" s="7">
-        <v>132</v>
-      </c>
-      <c r="I4" s="7">
-        <v>85810</v>
-      </c>
-      <c r="J4" s="7" t="s">
+      <c r="K4" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M4" s="7">
+        <v>32</v>
+      </c>
+      <c r="N4" s="7">
+        <v>28403</v>
+      </c>
+      <c r="O4" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="P4" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="M4" s="7">
-        <v>258</v>
-      </c>
-      <c r="N4" s="7">
-        <v>173106</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>215</v>
-      </c>
       <c r="Q4" s="7" t="s">
-        <v>216</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="D5" s="7">
-        <v>21295</v>
+        <v>1046</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="H5" s="7">
+        <v>1</v>
+      </c>
+      <c r="I5" s="7">
+        <v>1030</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="M5" s="7">
+        <v>2</v>
+      </c>
+      <c r="N5" s="7">
+        <v>2076</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="P5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="H5" s="7">
-        <v>34</v>
-      </c>
-      <c r="I5" s="7">
-        <v>21373</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="M5" s="7">
-        <v>65</v>
-      </c>
-      <c r="N5" s="7">
-        <v>42668</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3999,54 +3999,54 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>157</v>
+        <v>18</v>
       </c>
       <c r="D6" s="7">
-        <v>108592</v>
+        <v>15477</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H6" s="7">
-        <v>166</v>
+        <v>16</v>
       </c>
       <c r="I6" s="7">
-        <v>107183</v>
+        <v>15002</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M6" s="7">
-        <v>323</v>
+        <v>34</v>
       </c>
       <c r="N6" s="7">
-        <v>215774</v>
+        <v>30479</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -4058,13 +4058,13 @@
         <v>44711</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="H7" s="7">
         <v>67</v>
@@ -4073,13 +4073,13 @@
         <v>45143</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="M7" s="7">
         <v>126</v>
@@ -4088,19 +4088,19 @@
         <v>89854</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C8" s="7">
         <v>20</v>
@@ -4109,13 +4109,13 @@
         <v>15609</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="H8" s="7">
         <v>15</v>
@@ -4124,13 +4124,13 @@
         <v>10695</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="M8" s="7">
         <v>35</v>
@@ -4139,13 +4139,13 @@
         <v>26304</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4160,13 +4160,13 @@
         <v>60320</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H9" s="7">
         <v>82</v>
@@ -4175,13 +4175,13 @@
         <v>55838</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M9" s="7">
         <v>161</v>
@@ -4190,117 +4190,117 @@
         <v>116158</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="D10" s="7">
-        <v>88968</v>
+        <v>87297</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="H10" s="7">
+        <v>132</v>
+      </c>
+      <c r="I10" s="7">
+        <v>85810</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="M10" s="7">
+        <v>258</v>
+      </c>
+      <c r="N10" s="7">
+        <v>173106</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="H10" s="7">
-        <v>114</v>
-      </c>
-      <c r="I10" s="7">
-        <v>86353</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="M10" s="7">
-        <v>235</v>
-      </c>
-      <c r="N10" s="7">
-        <v>175321</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D11" s="7">
-        <v>17789</v>
+        <v>21295</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="H11" s="7">
+        <v>34</v>
+      </c>
+      <c r="I11" s="7">
+        <v>21373</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="M11" s="7">
+        <v>65</v>
+      </c>
+      <c r="N11" s="7">
+        <v>42668</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>255</v>
-      </c>
-      <c r="H11" s="7">
-        <v>30</v>
-      </c>
-      <c r="I11" s="7">
-        <v>22654</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="M11" s="7">
-        <v>54</v>
-      </c>
-      <c r="N11" s="7">
-        <v>40443</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4309,153 +4309,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="D12" s="7">
-        <v>106757</v>
+        <v>108592</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H12" s="7">
-        <v>144</v>
+        <v>166</v>
       </c>
       <c r="I12" s="7">
-        <v>109007</v>
+        <v>107183</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M12" s="7">
-        <v>289</v>
+        <v>323</v>
       </c>
       <c r="N12" s="7">
-        <v>215764</v>
+        <v>215774</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>17</v>
+        <v>89</v>
       </c>
       <c r="D13" s="7">
-        <v>14431</v>
+        <v>60663</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="H13" s="7">
+        <v>98</v>
+      </c>
+      <c r="I13" s="7">
+        <v>62562</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="M13" s="7">
+        <v>187</v>
+      </c>
+      <c r="N13" s="7">
+        <v>123226</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="H13" s="7">
-        <v>15</v>
-      </c>
-      <c r="I13" s="7">
-        <v>13972</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="M13" s="7">
-        <v>32</v>
-      </c>
-      <c r="N13" s="7">
-        <v>28403</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="D14" s="7">
-        <v>1046</v>
+        <v>16200</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="H14" s="7">
+        <v>21</v>
+      </c>
+      <c r="I14" s="7">
+        <v>13026</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="G14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>43</v>
+      </c>
+      <c r="N14" s="7">
+        <v>29225</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="H14" s="7">
-        <v>1</v>
-      </c>
-      <c r="I14" s="7">
-        <v>1030</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="K14" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="L14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>271</v>
-      </c>
-      <c r="M14" s="7">
-        <v>2</v>
-      </c>
-      <c r="N14" s="7">
-        <v>2076</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4464,49 +4464,49 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>18</v>
+        <v>111</v>
       </c>
       <c r="D15" s="7">
-        <v>15477</v>
+        <v>76863</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H15" s="7">
-        <v>16</v>
+        <v>119</v>
       </c>
       <c r="I15" s="7">
-        <v>15002</v>
+        <v>75588</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M15" s="7">
-        <v>34</v>
+        <v>230</v>
       </c>
       <c r="N15" s="7">
-        <v>30479</v>
+        <v>152451</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4517,76 +4517,76 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>89</v>
+        <v>121</v>
       </c>
       <c r="D16" s="7">
-        <v>60663</v>
+        <v>88968</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="H16" s="7">
+        <v>114</v>
+      </c>
+      <c r="I16" s="7">
+        <v>86353</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="G16" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="H16" s="7">
-        <v>98</v>
-      </c>
-      <c r="I16" s="7">
-        <v>62562</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>235</v>
+      </c>
+      <c r="N16" s="7">
+        <v>175321</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="M16" s="7">
-        <v>187</v>
-      </c>
-      <c r="N16" s="7">
-        <v>123226</v>
-      </c>
-      <c r="O16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>280</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D17" s="7">
-        <v>16200</v>
+        <v>17789</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>282</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>283</v>
       </c>
       <c r="H17" s="7">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="I17" s="7">
-        <v>13026</v>
+        <v>22654</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>284</v>
@@ -4598,10 +4598,10 @@
         <v>286</v>
       </c>
       <c r="M17" s="7">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="N17" s="7">
-        <v>29225</v>
+        <v>40443</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>287</v>
@@ -4619,49 +4619,49 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>111</v>
+        <v>145</v>
       </c>
       <c r="D18" s="7">
-        <v>76863</v>
+        <v>106757</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H18" s="7">
-        <v>119</v>
+        <v>144</v>
       </c>
       <c r="I18" s="7">
-        <v>75588</v>
+        <v>109007</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M18" s="7">
-        <v>230</v>
+        <v>289</v>
       </c>
       <c r="N18" s="7">
-        <v>152451</v>
+        <v>215764</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4720,7 +4720,7 @@
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C20" s="7">
         <v>98</v>
@@ -4780,13 +4780,13 @@
         <v>368008</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H21" s="7">
         <v>527</v>
@@ -4795,13 +4795,13 @@
         <v>362618</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M21" s="7">
         <v>1037</v>
@@ -4810,13 +4810,13 @@
         <v>730626</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -4837,7 +4837,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA1042F6-1E61-4662-9DDF-7C3D0D15F2AE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3DAFA37-2D5F-49CE-84BA-4EE02BBA75FA}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4955,10 +4955,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>118</v>
+        <v>8</v>
       </c>
       <c r="D4" s="7">
-        <v>92589</v>
+        <v>5595</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>309</v>
@@ -4967,88 +4967,88 @@
         <v>310</v>
       </c>
       <c r="G4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="7">
+        <v>13</v>
+      </c>
+      <c r="I4" s="7">
+        <v>8370</v>
+      </c>
+      <c r="J4" s="7" t="s">
         <v>311</v>
       </c>
-      <c r="H4" s="7">
-        <v>104</v>
-      </c>
-      <c r="I4" s="7">
-        <v>73499</v>
-      </c>
-      <c r="J4" s="7" t="s">
+      <c r="K4" s="7" t="s">
         <v>312</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M4" s="7">
+        <v>21</v>
+      </c>
+      <c r="N4" s="7">
+        <v>13964</v>
+      </c>
+      <c r="O4" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="P4" s="7" t="s">
         <v>314</v>
       </c>
-      <c r="M4" s="7">
-        <v>222</v>
-      </c>
-      <c r="N4" s="7">
-        <v>166087</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>316</v>
-      </c>
       <c r="Q4" s="7" t="s">
-        <v>317</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>93</v>
+        <v>1</v>
       </c>
       <c r="D5" s="7">
-        <v>74361</v>
+        <v>910</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="H5" s="7">
+        <v>2</v>
+      </c>
+      <c r="I5" s="7">
+        <v>1149</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>318</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="M5" s="7">
+        <v>3</v>
+      </c>
+      <c r="N5" s="7">
+        <v>2059</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>319</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="P5" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>320</v>
-      </c>
-      <c r="H5" s="7">
-        <v>59</v>
-      </c>
-      <c r="I5" s="7">
-        <v>45001</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="M5" s="7">
-        <v>152</v>
-      </c>
-      <c r="N5" s="7">
-        <v>119362</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5057,54 +5057,54 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>211</v>
+        <v>9</v>
       </c>
       <c r="D6" s="7">
-        <v>166950</v>
+        <v>6505</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H6" s="7">
-        <v>163</v>
+        <v>15</v>
       </c>
       <c r="I6" s="7">
-        <v>118500</v>
+        <v>9519</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M6" s="7">
-        <v>374</v>
+        <v>24</v>
       </c>
       <c r="N6" s="7">
-        <v>285449</v>
+        <v>16023</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -5116,13 +5116,13 @@
         <v>47391</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="H7" s="7">
         <v>65</v>
@@ -5131,13 +5131,13 @@
         <v>40142</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="M7" s="7">
         <v>119</v>
@@ -5146,19 +5146,19 @@
         <v>87533</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C8" s="7">
         <v>30</v>
@@ -5167,13 +5167,13 @@
         <v>24361</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="H8" s="7">
         <v>30</v>
@@ -5182,13 +5182,13 @@
         <v>22380</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="M8" s="7">
         <v>60</v>
@@ -5197,13 +5197,13 @@
         <v>46741</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5218,13 +5218,13 @@
         <v>71752</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H9" s="7">
         <v>95</v>
@@ -5233,13 +5233,13 @@
         <v>62522</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M9" s="7">
         <v>179</v>
@@ -5248,117 +5248,117 @@
         <v>134274</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>98</v>
+        <v>118</v>
       </c>
       <c r="D10" s="7">
-        <v>75131</v>
+        <v>92589</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="H10" s="7">
+        <v>104</v>
+      </c>
+      <c r="I10" s="7">
+        <v>73499</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="M10" s="7">
+        <v>222</v>
+      </c>
+      <c r="N10" s="7">
+        <v>166087</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>345</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>346</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>347</v>
-      </c>
-      <c r="H10" s="7">
-        <v>93</v>
-      </c>
-      <c r="I10" s="7">
-        <v>68330</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>348</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="M10" s="7">
-        <v>191</v>
-      </c>
-      <c r="N10" s="7">
-        <v>143461</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>352</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>40</v>
+        <v>93</v>
       </c>
       <c r="D11" s="7">
-        <v>32644</v>
+        <v>74361</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="H11" s="7">
+        <v>59</v>
+      </c>
+      <c r="I11" s="7">
+        <v>45001</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="M11" s="7">
+        <v>152</v>
+      </c>
+      <c r="N11" s="7">
+        <v>119362</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>354</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>355</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>356</v>
-      </c>
-      <c r="H11" s="7">
-        <v>46</v>
-      </c>
-      <c r="I11" s="7">
-        <v>35867</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>357</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>358</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>359</v>
-      </c>
-      <c r="M11" s="7">
-        <v>86</v>
-      </c>
-      <c r="N11" s="7">
-        <v>68511</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>360</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>361</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5367,150 +5367,150 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>138</v>
+        <v>211</v>
       </c>
       <c r="D12" s="7">
-        <v>107775</v>
+        <v>166950</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H12" s="7">
-        <v>139</v>
+        <v>163</v>
       </c>
       <c r="I12" s="7">
-        <v>104197</v>
+        <v>118500</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M12" s="7">
-        <v>277</v>
+        <v>374</v>
       </c>
       <c r="N12" s="7">
-        <v>211972</v>
+        <v>285449</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>8</v>
+        <v>106</v>
       </c>
       <c r="D13" s="7">
-        <v>5595</v>
+        <v>87414</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="H13" s="7">
+        <v>114</v>
+      </c>
+      <c r="I13" s="7">
+        <v>83803</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="M13" s="7">
+        <v>220</v>
+      </c>
+      <c r="N13" s="7">
+        <v>171216</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>363</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>364</v>
       </c>
-      <c r="G13" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="H13" s="7">
-        <v>13</v>
-      </c>
-      <c r="I13" s="7">
-        <v>8370</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>365</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>366</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="M13" s="7">
-        <v>21</v>
-      </c>
-      <c r="N13" s="7">
-        <v>13964</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>367</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>368</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="D14" s="7">
-        <v>910</v>
+        <v>24407</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="H14" s="7">
+        <v>28</v>
+      </c>
+      <c r="I14" s="7">
+        <v>21483</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>369</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="G14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>370</v>
       </c>
-      <c r="H14" s="7">
-        <v>2</v>
-      </c>
-      <c r="I14" s="7">
-        <v>1149</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>371</v>
       </c>
-      <c r="K14" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="L14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>50</v>
+      </c>
+      <c r="N14" s="7">
+        <v>45891</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>372</v>
       </c>
-      <c r="M14" s="7">
-        <v>3</v>
-      </c>
-      <c r="N14" s="7">
-        <v>2059</v>
-      </c>
-      <c r="O14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>373</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>61</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>374</v>
@@ -5522,49 +5522,49 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>9</v>
+        <v>128</v>
       </c>
       <c r="D15" s="7">
-        <v>6505</v>
+        <v>111821</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H15" s="7">
-        <v>15</v>
+        <v>142</v>
       </c>
       <c r="I15" s="7">
-        <v>9519</v>
+        <v>105286</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M15" s="7">
-        <v>24</v>
+        <v>270</v>
       </c>
       <c r="N15" s="7">
-        <v>16023</v>
+        <v>217107</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5575,10 +5575,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="D16" s="7">
-        <v>87414</v>
+        <v>75131</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>375</v>
@@ -5590,10 +5590,10 @@
         <v>377</v>
       </c>
       <c r="H16" s="7">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="I16" s="7">
-        <v>83803</v>
+        <v>68330</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>378</v>
@@ -5605,10 +5605,10 @@
         <v>380</v>
       </c>
       <c r="M16" s="7">
-        <v>220</v>
+        <v>191</v>
       </c>
       <c r="N16" s="7">
-        <v>171216</v>
+        <v>143461</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>381</v>
@@ -5623,13 +5623,13 @@
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="D17" s="7">
-        <v>24407</v>
+        <v>32644</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>384</v>
@@ -5641,10 +5641,10 @@
         <v>386</v>
       </c>
       <c r="H17" s="7">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="I17" s="7">
-        <v>21483</v>
+        <v>35867</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>387</v>
@@ -5656,10 +5656,10 @@
         <v>389</v>
       </c>
       <c r="M17" s="7">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="N17" s="7">
-        <v>45891</v>
+        <v>68511</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>390</v>
@@ -5677,49 +5677,49 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="D18" s="7">
-        <v>111821</v>
+        <v>107775</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H18" s="7">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="I18" s="7">
-        <v>105286</v>
+        <v>104197</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M18" s="7">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="N18" s="7">
-        <v>217107</v>
+        <v>211972</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5778,7 +5778,7 @@
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C20" s="7">
         <v>186</v>
@@ -5838,13 +5838,13 @@
         <v>464803</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H21" s="7">
         <v>554</v>
@@ -5853,13 +5853,13 @@
         <v>400024</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M21" s="7">
         <v>1124</v>
@@ -5868,13 +5868,13 @@
         <v>864826</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP19C02-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP19C02-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9583E368-F3E2-4ACB-A59B-6B8CB3E33BEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{995456C0-8692-462B-B1FB-860348640CED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{F4C4832E-B48B-4C5D-9BC4-8C67C50F0D11}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{83C1DC32-A6FE-43D8-BE29-20A9FB46F7E5}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="420">
   <si>
     <t>Menores según su última visita al dentista fue por limpieza de boca en 2007 (Tasa respuesta: 50,71%)</t>
   </si>
@@ -71,6 +71,30 @@
     <t>Menos de 2</t>
   </si>
   <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>23,02%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
+  </si>
+  <si>
     <t>No</t>
   </si>
   <si>
@@ -86,1192 +110,1195 @@
     <t>95,49%</t>
   </si>
   <si>
-    <t>77,46%</t>
+    <t>76,98%</t>
   </si>
   <si>
     <t>97,47%</t>
   </si>
   <si>
-    <t>85,95%</t>
-  </si>
-  <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>22,54%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>14,05%</t>
+    <t>85,8%</t>
   </si>
   <si>
     <t>2/10</t>
   </si>
   <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
     <t>94,81%</t>
   </si>
   <si>
-    <t>88,34%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
+    <t>88,47%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
   </si>
   <si>
     <t>92,97%</t>
   </si>
   <si>
-    <t>86,17%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
+    <t>86,38%</t>
+  </si>
+  <si>
+    <t>97,49%</t>
   </si>
   <si>
     <t>93,97%</t>
   </si>
   <si>
-    <t>89,48%</t>
-  </si>
-  <si>
-    <t>96,68%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
+    <t>89,6%</t>
+  </si>
+  <si>
+    <t>96,74%</t>
   </si>
   <si>
     <t>10/50</t>
   </si>
   <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
     <t>92,16%</t>
   </si>
   <si>
-    <t>87,36%</t>
-  </si>
-  <si>
-    <t>95,77%</t>
+    <t>87,46%</t>
+  </si>
+  <si>
+    <t>95,72%</t>
   </si>
   <si>
     <t>91,81%</t>
   </si>
   <si>
+    <t>86,87%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>91,99%</t>
+  </si>
+  <si>
+    <t>88,91%</t>
+  </si>
+  <si>
+    <t>94,62%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>92,77%</t>
+  </si>
+  <si>
+    <t>87,01%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
+  </si>
+  <si>
+    <t>93,62%</t>
+  </si>
+  <si>
+    <t>88,26%</t>
+  </si>
+  <si>
+    <t>97,07%</t>
+  </si>
+  <si>
+    <t>93,17%</t>
+  </si>
+  <si>
+    <t>89,22%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>93,1%</t>
+  </si>
+  <si>
+    <t>86,95%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
+  </si>
+  <si>
+    <t>92,25%</t>
+  </si>
+  <si>
+    <t>86,36%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
+  </si>
+  <si>
+    <t>92,66%</t>
+  </si>
+  <si>
+    <t>88,67%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>93,33%</t>
+  </si>
+  <si>
+    <t>91,18%</t>
+  </si>
+  <si>
+    <t>95,26%</t>
+  </si>
+  <si>
+    <t>90,04%</t>
+  </si>
+  <si>
+    <t>94,65%</t>
+  </si>
+  <si>
+    <t>93,0%</t>
+  </si>
+  <si>
+    <t>91,37%</t>
+  </si>
+  <si>
+    <t>94,35%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al dentista fue por limpieza de boca en 2012 (Tasa respuesta: 48,93%)</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>87,39%</t>
+  </si>
+  <si>
+    <t>88,17%</t>
+  </si>
+  <si>
+    <t>93,64%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>93,63%</t>
+  </si>
+  <si>
     <t>87,11%</t>
   </si>
   <si>
-    <t>95,39%</t>
-  </si>
-  <si>
-    <t>91,99%</t>
-  </si>
-  <si>
-    <t>89,07%</t>
-  </si>
-  <si>
-    <t>94,66%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>92,77%</t>
-  </si>
-  <si>
-    <t>87,47%</t>
-  </si>
-  <si>
-    <t>96,27%</t>
-  </si>
-  <si>
-    <t>93,62%</t>
-  </si>
-  <si>
-    <t>88,48%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>93,17%</t>
-  </si>
-  <si>
-    <t>89,86%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>93,1%</t>
-  </si>
-  <si>
-    <t>87,06%</t>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>93,86%</t>
+  </si>
+  <si>
+    <t>86,98%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
+  </si>
+  <si>
+    <t>89,5%</t>
+  </si>
+  <si>
+    <t>96,89%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>93,69%</t>
+  </si>
+  <si>
+    <t>89,71%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
+  </si>
+  <si>
+    <t>92,13%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>91,92%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>92,34%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>94,04%</t>
+  </si>
+  <si>
+    <t>88,46%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
+  </si>
+  <si>
+    <t>92,29%</t>
+  </si>
+  <si>
+    <t>98,01%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>14,91%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>89,8%</t>
+  </si>
+  <si>
+    <t>83,7%</t>
+  </si>
+  <si>
+    <t>94,18%</t>
+  </si>
+  <si>
+    <t>91,76%</t>
+  </si>
+  <si>
+    <t>85,09%</t>
+  </si>
+  <si>
+    <t>95,88%</t>
+  </si>
+  <si>
+    <t>90,76%</t>
+  </si>
+  <si>
+    <t>86,49%</t>
+  </si>
+  <si>
+    <t>93,81%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>93,66%</t>
+  </si>
+  <si>
+    <t>91,14%</t>
+  </si>
+  <si>
+    <t>95,31%</t>
+  </si>
+  <si>
+    <t>94,24%</t>
+  </si>
+  <si>
+    <t>91,95%</t>
+  </si>
+  <si>
+    <t>96,04%</t>
+  </si>
+  <si>
+    <t>93,94%</t>
+  </si>
+  <si>
+    <t>92,22%</t>
+  </si>
+  <si>
+    <t>95,18%</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al dentista fue por limpieza de boca en 2015 (Tasa respuesta: 48,78%)</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>27,27%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>33,34%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>21,5%</t>
+  </si>
+  <si>
+    <t>93,24%</t>
+  </si>
+  <si>
+    <t>72,73%</t>
+  </si>
+  <si>
+    <t>93,13%</t>
+  </si>
+  <si>
+    <t>66,66%</t>
+  </si>
+  <si>
+    <t>93,19%</t>
+  </si>
+  <si>
+    <t>78,5%</t>
+  </si>
+  <si>
+    <t>25,88%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>35,91%</t>
+  </si>
+  <si>
+    <t>19,15%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>29,51%</t>
+  </si>
+  <si>
+    <t>22,64%</t>
+  </si>
+  <si>
+    <t>16,6%</t>
+  </si>
+  <si>
+    <t>29,61%</t>
+  </si>
+  <si>
+    <t>74,12%</t>
+  </si>
+  <si>
+    <t>64,09%</t>
+  </si>
+  <si>
+    <t>83,45%</t>
+  </si>
+  <si>
+    <t>80,85%</t>
+  </si>
+  <si>
+    <t>70,49%</t>
+  </si>
+  <si>
+    <t>88,22%</t>
+  </si>
+  <si>
+    <t>77,36%</t>
+  </si>
+  <si>
+    <t>70,39%</t>
+  </si>
+  <si>
+    <t>83,4%</t>
+  </si>
+  <si>
+    <t>19,61%</t>
+  </si>
+  <si>
+    <t>26,3%</t>
+  </si>
+  <si>
+    <t>19,94%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>25,93%</t>
+  </si>
+  <si>
+    <t>19,77%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>24,71%</t>
+  </si>
+  <si>
+    <t>80,39%</t>
+  </si>
+  <si>
+    <t>73,7%</t>
+  </si>
+  <si>
+    <t>80,06%</t>
+  </si>
+  <si>
+    <t>74,07%</t>
+  </si>
+  <si>
+    <t>86,35%</t>
+  </si>
+  <si>
+    <t>80,23%</t>
+  </si>
+  <si>
+    <t>75,29%</t>
+  </si>
+  <si>
+    <t>84,32%</t>
+  </si>
+  <si>
+    <t>21,08%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>29,62%</t>
+  </si>
+  <si>
+    <t>17,23%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>25,14%</t>
+  </si>
+  <si>
+    <t>19,17%</t>
+  </si>
+  <si>
+    <t>14,37%</t>
+  </si>
+  <si>
+    <t>24,8%</t>
+  </si>
+  <si>
+    <t>78,92%</t>
+  </si>
+  <si>
+    <t>70,38%</t>
+  </si>
+  <si>
+    <t>85,43%</t>
+  </si>
+  <si>
+    <t>82,77%</t>
+  </si>
+  <si>
+    <t>74,86%</t>
+  </si>
+  <si>
+    <t>88,75%</t>
+  </si>
+  <si>
+    <t>80,83%</t>
+  </si>
+  <si>
+    <t>75,2%</t>
+  </si>
+  <si>
+    <t>85,63%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>22,59%</t>
+  </si>
+  <si>
+    <t>20,78%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>27,64%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>23,45%</t>
+  </si>
+  <si>
+    <t>83,34%</t>
+  </si>
+  <si>
+    <t>77,41%</t>
+  </si>
+  <si>
+    <t>88,71%</t>
+  </si>
+  <si>
+    <t>79,22%</t>
+  </si>
+  <si>
+    <t>72,36%</t>
+  </si>
+  <si>
+    <t>85,34%</t>
+  </si>
+  <si>
+    <t>81,26%</t>
+  </si>
+  <si>
+    <t>76,55%</t>
+  </si>
+  <si>
+    <t>85,64%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>23,32%</t>
+  </si>
+  <si>
+    <t>18,97%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>22,56%</t>
+  </si>
+  <si>
+    <t>19,26%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>21,55%</t>
+  </si>
+  <si>
+    <t>80,45%</t>
+  </si>
+  <si>
+    <t>76,68%</t>
+  </si>
+  <si>
+    <t>83,79%</t>
+  </si>
+  <si>
+    <t>81,03%</t>
+  </si>
+  <si>
+    <t>77,44%</t>
+  </si>
+  <si>
+    <t>84,09%</t>
+  </si>
+  <si>
+    <t>80,74%</t>
+  </si>
+  <si>
+    <t>78,45%</t>
+  </si>
+  <si>
+    <t>83,16%</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al dentista fue por limpieza de boca en 2023 (Tasa respuesta: 58,54%)</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>57,38%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>41,23%</t>
+  </si>
+  <si>
+    <t>12,85%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>32,68%</t>
+  </si>
+  <si>
+    <t>86,01%</t>
+  </si>
+  <si>
+    <t>42,62%</t>
+  </si>
+  <si>
+    <t>87,93%</t>
+  </si>
+  <si>
+    <t>58,77%</t>
+  </si>
+  <si>
+    <t>87,15%</t>
+  </si>
+  <si>
+    <t>67,32%</t>
   </si>
   <si>
     <t>96,45%</t>
   </si>
   <si>
-    <t>92,25%</t>
-  </si>
-  <si>
-    <t>86,73%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
-  </si>
-  <si>
-    <t>92,66%</t>
-  </si>
-  <si>
-    <t>88,75%</t>
-  </si>
-  <si>
-    <t>95,28%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>93,33%</t>
-  </si>
-  <si>
-    <t>90,82%</t>
-  </si>
-  <si>
-    <t>95,21%</t>
-  </si>
-  <si>
-    <t>90,04%</t>
-  </si>
-  <si>
-    <t>94,53%</t>
-  </si>
-  <si>
-    <t>93,0%</t>
-  </si>
-  <si>
-    <t>91,11%</t>
-  </si>
-  <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al dentista fue por limpieza de boca en 2012 (Tasa respuesta: 48,93%)</t>
-  </si>
-  <si>
-    <t>87,39%</t>
-  </si>
-  <si>
-    <t>88,17%</t>
-  </si>
-  <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>93,63%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>93,86%</t>
-  </si>
-  <si>
-    <t>86,16%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>93,75%</t>
-  </si>
-  <si>
-    <t>96,67%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>93,69%</t>
-  </si>
-  <si>
-    <t>88,64%</t>
-  </si>
-  <si>
-    <t>96,55%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
-  </si>
-  <si>
-    <t>92,06%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>92,09%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>92,34%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>94,04%</t>
-  </si>
-  <si>
-    <t>88,29%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>89,8%</t>
-  </si>
-  <si>
-    <t>83,35%</t>
-  </si>
-  <si>
-    <t>94,5%</t>
-  </si>
-  <si>
-    <t>91,76%</t>
-  </si>
-  <si>
-    <t>85,14%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
-  </si>
-  <si>
-    <t>90,76%</t>
-  </si>
-  <si>
-    <t>86,68%</t>
-  </si>
-  <si>
-    <t>93,89%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>93,66%</t>
-  </si>
-  <si>
-    <t>91,15%</t>
-  </si>
-  <si>
-    <t>95,44%</t>
-  </si>
-  <si>
-    <t>94,24%</t>
-  </si>
-  <si>
-    <t>91,91%</t>
-  </si>
-  <si>
-    <t>95,98%</t>
-  </si>
-  <si>
-    <t>93,94%</t>
-  </si>
-  <si>
-    <t>92,26%</t>
-  </si>
-  <si>
-    <t>95,31%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al dentista fue por limpieza de boca en 2015 (Tasa respuesta: 48,78%)</t>
-  </si>
-  <si>
-    <t>93,24%</t>
-  </si>
-  <si>
-    <t>72,48%</t>
-  </si>
-  <si>
-    <t>93,13%</t>
-  </si>
-  <si>
-    <t>65,83%</t>
-  </si>
-  <si>
-    <t>93,19%</t>
-  </si>
-  <si>
-    <t>78,77%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>27,52%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>34,17%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>21,23%</t>
-  </si>
-  <si>
-    <t>74,12%</t>
-  </si>
-  <si>
-    <t>63,38%</t>
-  </si>
-  <si>
-    <t>82,79%</t>
-  </si>
-  <si>
-    <t>80,85%</t>
-  </si>
-  <si>
-    <t>71,1%</t>
-  </si>
-  <si>
-    <t>88,85%</t>
-  </si>
-  <si>
-    <t>77,36%</t>
-  </si>
-  <si>
-    <t>70,5%</t>
-  </si>
-  <si>
-    <t>83,84%</t>
-  </si>
-  <si>
-    <t>25,88%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>36,62%</t>
-  </si>
-  <si>
-    <t>19,15%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>28,9%</t>
-  </si>
-  <si>
-    <t>22,64%</t>
-  </si>
-  <si>
-    <t>16,16%</t>
-  </si>
-  <si>
-    <t>29,5%</t>
-  </si>
-  <si>
-    <t>80,39%</t>
-  </si>
-  <si>
-    <t>74,03%</t>
-  </si>
-  <si>
-    <t>86,52%</t>
-  </si>
-  <si>
-    <t>80,06%</t>
-  </si>
-  <si>
-    <t>73,76%</t>
-  </si>
-  <si>
-    <t>85,97%</t>
-  </si>
-  <si>
-    <t>80,23%</t>
-  </si>
-  <si>
-    <t>75,72%</t>
-  </si>
-  <si>
-    <t>84,37%</t>
-  </si>
-  <si>
-    <t>19,61%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>25,97%</t>
-  </si>
-  <si>
-    <t>19,94%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>26,24%</t>
-  </si>
-  <si>
-    <t>19,77%</t>
-  </si>
-  <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>24,28%</t>
-  </si>
-  <si>
-    <t>78,92%</t>
-  </si>
-  <si>
-    <t>70,66%</t>
-  </si>
-  <si>
-    <t>82,77%</t>
-  </si>
-  <si>
-    <t>75,33%</t>
-  </si>
-  <si>
-    <t>89,06%</t>
-  </si>
-  <si>
-    <t>80,83%</t>
-  </si>
-  <si>
-    <t>75,32%</t>
-  </si>
-  <si>
-    <t>85,63%</t>
-  </si>
-  <si>
-    <t>21,08%</t>
-  </si>
-  <si>
-    <t>29,34%</t>
-  </si>
-  <si>
-    <t>17,23%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>24,67%</t>
-  </si>
-  <si>
-    <t>19,17%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>24,68%</t>
-  </si>
-  <si>
-    <t>83,34%</t>
-  </si>
-  <si>
-    <t>76,34%</t>
-  </si>
-  <si>
-    <t>89,51%</t>
-  </si>
-  <si>
-    <t>79,22%</t>
-  </si>
-  <si>
-    <t>71,93%</t>
-  </si>
-  <si>
-    <t>85,23%</t>
-  </si>
-  <si>
-    <t>81,26%</t>
-  </si>
-  <si>
-    <t>76,66%</t>
-  </si>
-  <si>
-    <t>85,68%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>23,66%</t>
-  </si>
-  <si>
-    <t>20,78%</t>
-  </si>
-  <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>28,07%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>23,34%</t>
-  </si>
-  <si>
-    <t>80,45%</t>
-  </si>
-  <si>
-    <t>76,97%</t>
-  </si>
-  <si>
-    <t>84,08%</t>
-  </si>
-  <si>
-    <t>81,03%</t>
-  </si>
-  <si>
-    <t>77,47%</t>
-  </si>
-  <si>
-    <t>84,23%</t>
-  </si>
-  <si>
-    <t>80,74%</t>
-  </si>
-  <si>
-    <t>78,35%</t>
-  </si>
-  <si>
-    <t>83,17%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>15,92%</t>
-  </si>
-  <si>
-    <t>23,03%</t>
-  </si>
-  <si>
-    <t>18,97%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>22,53%</t>
-  </si>
-  <si>
-    <t>19,26%</t>
-  </si>
-  <si>
-    <t>16,83%</t>
-  </si>
-  <si>
-    <t>21,65%</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al dentista fue por limpieza de boca en 2023 (Tasa respuesta: 58,54%)</t>
-  </si>
-  <si>
-    <t>86,01%</t>
-  </si>
-  <si>
-    <t>42,62%</t>
-  </si>
-  <si>
-    <t>87,93%</t>
-  </si>
-  <si>
-    <t>58,77%</t>
-  </si>
-  <si>
-    <t>87,15%</t>
-  </si>
-  <si>
-    <t>67,32%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>57,38%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>41,23%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>32,68%</t>
+    <t>33,95%</t>
+  </si>
+  <si>
+    <t>22,67%</t>
+  </si>
+  <si>
+    <t>45,37%</t>
+  </si>
+  <si>
+    <t>35,8%</t>
+  </si>
+  <si>
+    <t>25,95%</t>
+  </si>
+  <si>
+    <t>47,75%</t>
+  </si>
+  <si>
+    <t>34,81%</t>
+  </si>
+  <si>
+    <t>26,33%</t>
+  </si>
+  <si>
+    <t>42,94%</t>
   </si>
   <si>
     <t>66,05%</t>
   </si>
   <si>
-    <t>54,47%</t>
-  </si>
-  <si>
-    <t>77,43%</t>
+    <t>54,63%</t>
+  </si>
+  <si>
+    <t>77,33%</t>
   </si>
   <si>
     <t>64,2%</t>
   </si>
   <si>
-    <t>52,72%</t>
-  </si>
-  <si>
-    <t>74,67%</t>
+    <t>52,25%</t>
+  </si>
+  <si>
+    <t>74,05%</t>
   </si>
   <si>
     <t>65,19%</t>
   </si>
   <si>
-    <t>57,45%</t>
-  </si>
-  <si>
-    <t>72,88%</t>
-  </si>
-  <si>
-    <t>33,95%</t>
-  </si>
-  <si>
-    <t>22,57%</t>
-  </si>
-  <si>
-    <t>45,53%</t>
-  </si>
-  <si>
-    <t>35,8%</t>
-  </si>
-  <si>
-    <t>25,33%</t>
-  </si>
-  <si>
-    <t>47,28%</t>
-  </si>
-  <si>
-    <t>34,81%</t>
-  </si>
-  <si>
-    <t>27,12%</t>
-  </si>
-  <si>
-    <t>42,55%</t>
+    <t>57,06%</t>
+  </si>
+  <si>
+    <t>73,67%</t>
+  </si>
+  <si>
+    <t>44,54%</t>
+  </si>
+  <si>
+    <t>37,94%</t>
+  </si>
+  <si>
+    <t>51,38%</t>
+  </si>
+  <si>
+    <t>37,98%</t>
+  </si>
+  <si>
+    <t>30,15%</t>
+  </si>
+  <si>
+    <t>46,07%</t>
+  </si>
+  <si>
+    <t>41,82%</t>
+  </si>
+  <si>
+    <t>36,1%</t>
+  </si>
+  <si>
+    <t>46,47%</t>
   </si>
   <si>
     <t>55,46%</t>
   </si>
   <si>
-    <t>48,33%</t>
-  </si>
-  <si>
-    <t>62,45%</t>
+    <t>48,62%</t>
+  </si>
+  <si>
+    <t>62,06%</t>
   </si>
   <si>
     <t>62,02%</t>
   </si>
   <si>
-    <t>54,3%</t>
-  </si>
-  <si>
-    <t>70,1%</t>
+    <t>53,93%</t>
+  </si>
+  <si>
+    <t>69,85%</t>
   </si>
   <si>
     <t>58,18%</t>
   </si>
   <si>
-    <t>52,47%</t>
-  </si>
-  <si>
-    <t>63,17%</t>
-  </si>
-  <si>
-    <t>44,54%</t>
-  </si>
-  <si>
-    <t>37,55%</t>
-  </si>
-  <si>
-    <t>51,67%</t>
-  </si>
-  <si>
-    <t>37,98%</t>
-  </si>
-  <si>
-    <t>29,9%</t>
-  </si>
-  <si>
-    <t>45,7%</t>
-  </si>
-  <si>
-    <t>41,82%</t>
-  </si>
-  <si>
-    <t>36,83%</t>
-  </si>
-  <si>
-    <t>47,53%</t>
+    <t>53,53%</t>
+  </si>
+  <si>
+    <t>63,9%</t>
+  </si>
+  <si>
+    <t>21,83%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>33,62%</t>
+  </si>
+  <si>
+    <t>20,4%</t>
+  </si>
+  <si>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>28,51%</t>
+  </si>
+  <si>
+    <t>21,14%</t>
+  </si>
+  <si>
+    <t>16,15%</t>
+  </si>
+  <si>
+    <t>27,48%</t>
   </si>
   <si>
     <t>78,17%</t>
   </si>
   <si>
-    <t>66,5%</t>
-  </si>
-  <si>
-    <t>85,62%</t>
+    <t>66,38%</t>
+  </si>
+  <si>
+    <t>85,16%</t>
   </si>
   <si>
     <t>79,6%</t>
   </si>
   <si>
-    <t>71,67%</t>
-  </si>
-  <si>
-    <t>86,69%</t>
+    <t>71,49%</t>
+  </si>
+  <si>
+    <t>85,79%</t>
   </si>
   <si>
     <t>78,86%</t>
   </si>
   <si>
-    <t>71,95%</t>
-  </si>
-  <si>
-    <t>84,42%</t>
-  </si>
-  <si>
-    <t>21,83%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>33,5%</t>
-  </si>
-  <si>
-    <t>20,4%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>28,33%</t>
-  </si>
-  <si>
-    <t>21,14%</t>
-  </si>
-  <si>
-    <t>15,58%</t>
-  </si>
-  <si>
-    <t>28,05%</t>
+    <t>72,52%</t>
+  </si>
+  <si>
+    <t>83,85%</t>
+  </si>
+  <si>
+    <t>30,29%</t>
+  </si>
+  <si>
+    <t>22,89%</t>
+  </si>
+  <si>
+    <t>39,59%</t>
+  </si>
+  <si>
+    <t>34,42%</t>
+  </si>
+  <si>
+    <t>26,76%</t>
+  </si>
+  <si>
+    <t>43,34%</t>
+  </si>
+  <si>
+    <t>32,32%</t>
+  </si>
+  <si>
+    <t>26,77%</t>
+  </si>
+  <si>
+    <t>38,18%</t>
   </si>
   <si>
     <t>69,71%</t>
   </si>
   <si>
-    <t>60,93%</t>
-  </si>
-  <si>
-    <t>77,51%</t>
+    <t>60,41%</t>
+  </si>
+  <si>
+    <t>77,11%</t>
   </si>
   <si>
     <t>65,58%</t>
   </si>
   <si>
-    <t>57,19%</t>
-  </si>
-  <si>
-    <t>73,47%</t>
+    <t>56,66%</t>
+  </si>
+  <si>
+    <t>73,24%</t>
   </si>
   <si>
     <t>67,68%</t>
   </si>
   <si>
-    <t>61,59%</t>
-  </si>
-  <si>
-    <t>73,09%</t>
-  </si>
-  <si>
-    <t>30,29%</t>
-  </si>
-  <si>
-    <t>22,49%</t>
-  </si>
-  <si>
-    <t>39,07%</t>
-  </si>
-  <si>
-    <t>34,42%</t>
-  </si>
-  <si>
-    <t>26,53%</t>
-  </si>
-  <si>
-    <t>42,81%</t>
-  </si>
-  <si>
-    <t>32,32%</t>
-  </si>
-  <si>
-    <t>26,91%</t>
-  </si>
-  <si>
-    <t>38,41%</t>
+    <t>61,82%</t>
+  </si>
+  <si>
+    <t>73,23%</t>
+  </si>
+  <si>
+    <t>33,71%</t>
+  </si>
+  <si>
+    <t>29,47%</t>
+  </si>
+  <si>
+    <t>38,08%</t>
+  </si>
+  <si>
+    <t>31,47%</t>
+  </si>
+  <si>
+    <t>27,38%</t>
+  </si>
+  <si>
+    <t>36,06%</t>
+  </si>
+  <si>
+    <t>32,67%</t>
+  </si>
+  <si>
+    <t>29,89%</t>
+  </si>
+  <si>
+    <t>36,03%</t>
   </si>
   <si>
     <t>66,29%</t>
   </si>
   <si>
-    <t>62,21%</t>
-  </si>
-  <si>
-    <t>70,48%</t>
+    <t>61,92%</t>
+  </si>
+  <si>
+    <t>70,53%</t>
   </si>
   <si>
     <t>68,53%</t>
   </si>
   <si>
-    <t>64,43%</t>
-  </si>
-  <si>
-    <t>72,87%</t>
+    <t>63,94%</t>
+  </si>
+  <si>
+    <t>72,62%</t>
   </si>
   <si>
     <t>67,33%</t>
   </si>
   <si>
-    <t>64,26%</t>
-  </si>
-  <si>
-    <t>70,27%</t>
-  </si>
-  <si>
-    <t>33,71%</t>
-  </si>
-  <si>
-    <t>29,52%</t>
-  </si>
-  <si>
-    <t>37,79%</t>
-  </si>
-  <si>
-    <t>31,47%</t>
-  </si>
-  <si>
-    <t>27,13%</t>
-  </si>
-  <si>
-    <t>35,57%</t>
-  </si>
-  <si>
-    <t>32,67%</t>
-  </si>
-  <si>
-    <t>29,73%</t>
-  </si>
-  <si>
-    <t>35,74%</t>
+    <t>63,97%</t>
+  </si>
+  <si>
+    <t>70,11%</t>
   </si>
 </sst>
 </file>
@@ -1282,7 +1309,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1378,39 +1405,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1462,7 +1489,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1573,13 +1600,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -1588,6 +1608,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1652,19 +1679,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61793582-6762-4CBC-A87B-57574DD1B76C}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0259C0E-835E-440C-8211-8865BDA5AC5D}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1781,10 +1828,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>13729</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1796,34 +1843,34 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="I4" s="7">
-        <v>16768</v>
+        <v>791</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="L4" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="M4" s="7">
-        <v>39</v>
+        <v>1</v>
       </c>
       <c r="N4" s="7">
-        <v>30497</v>
+        <v>791</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>16</v>
       </c>
       <c r="P4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -1832,10 +1879,10 @@
         <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>13729</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>19</v>
@@ -1847,34 +1894,34 @@
         <v>21</v>
       </c>
       <c r="H5" s="7">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="I5" s="7">
-        <v>791</v>
+        <v>16768</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>22</v>
       </c>
       <c r="K5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="L5" s="7" t="s">
-        <v>23</v>
-      </c>
       <c r="M5" s="7">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="N5" s="7">
-        <v>791</v>
+        <v>30497</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>24</v>
       </c>
       <c r="P5" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1889,13 +1936,13 @@
         <v>13729</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H6" s="7">
         <v>22</v>
@@ -1904,13 +1951,13 @@
         <v>17559</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M6" s="7">
         <v>40</v>
@@ -1919,13 +1966,13 @@
         <v>31288</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1936,10 +1983,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>99</v>
+        <v>5</v>
       </c>
       <c r="D7" s="7">
-        <v>64908</v>
+        <v>3551</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>27</v>
@@ -1951,10 +1998,10 @@
         <v>29</v>
       </c>
       <c r="H7" s="7">
-        <v>81</v>
+        <v>6</v>
       </c>
       <c r="I7" s="7">
-        <v>54028</v>
+        <v>4085</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>30</v>
@@ -1966,10 +2013,10 @@
         <v>32</v>
       </c>
       <c r="M7" s="7">
-        <v>180</v>
+        <v>11</v>
       </c>
       <c r="N7" s="7">
-        <v>118937</v>
+        <v>7636</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>33</v>
@@ -1987,10 +2034,10 @@
         <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>5</v>
+        <v>99</v>
       </c>
       <c r="D8" s="7">
-        <v>3551</v>
+        <v>64908</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>36</v>
@@ -2002,10 +2049,10 @@
         <v>38</v>
       </c>
       <c r="H8" s="7">
-        <v>6</v>
+        <v>81</v>
       </c>
       <c r="I8" s="7">
-        <v>4085</v>
+        <v>54028</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>39</v>
@@ -2017,10 +2064,10 @@
         <v>41</v>
       </c>
       <c r="M8" s="7">
-        <v>11</v>
+        <v>180</v>
       </c>
       <c r="N8" s="7">
-        <v>7636</v>
+        <v>118937</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>42</v>
@@ -2044,13 +2091,13 @@
         <v>68459</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H9" s="7">
         <v>87</v>
@@ -2059,13 +2106,13 @@
         <v>58113</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M9" s="7">
         <v>191</v>
@@ -2074,13 +2121,13 @@
         <v>126573</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2091,10 +2138,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>157</v>
+        <v>13</v>
       </c>
       <c r="D10" s="7">
-        <v>102884</v>
+        <v>8747</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>46</v>
@@ -2106,10 +2153,10 @@
         <v>48</v>
       </c>
       <c r="H10" s="7">
-        <v>160</v>
+        <v>14</v>
       </c>
       <c r="I10" s="7">
-        <v>101050</v>
+        <v>9011</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>49</v>
@@ -2121,10 +2168,10 @@
         <v>51</v>
       </c>
       <c r="M10" s="7">
-        <v>317</v>
+        <v>27</v>
       </c>
       <c r="N10" s="7">
-        <v>203934</v>
+        <v>17758</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>52</v>
@@ -2142,10 +2189,10 @@
         <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>13</v>
+        <v>157</v>
       </c>
       <c r="D11" s="7">
-        <v>8747</v>
+        <v>102884</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>55</v>
@@ -2157,10 +2204,10 @@
         <v>57</v>
       </c>
       <c r="H11" s="7">
-        <v>14</v>
+        <v>160</v>
       </c>
       <c r="I11" s="7">
-        <v>9011</v>
+        <v>101050</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>58</v>
@@ -2172,10 +2219,10 @@
         <v>60</v>
       </c>
       <c r="M11" s="7">
-        <v>27</v>
+        <v>317</v>
       </c>
       <c r="N11" s="7">
-        <v>17758</v>
+        <v>203934</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>61</v>
@@ -2199,13 +2246,13 @@
         <v>111631</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H12" s="7">
         <v>174</v>
@@ -2214,13 +2261,13 @@
         <v>110061</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M12" s="7">
         <v>344</v>
@@ -2229,13 +2276,13 @@
         <v>221692</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2246,10 +2293,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>113</v>
+        <v>9</v>
       </c>
       <c r="D13" s="7">
-        <v>72243</v>
+        <v>5626</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>65</v>
@@ -2261,10 +2308,10 @@
         <v>67</v>
       </c>
       <c r="H13" s="7">
-        <v>107</v>
+        <v>8</v>
       </c>
       <c r="I13" s="7">
-        <v>64790</v>
+        <v>4418</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>68</v>
@@ -2276,10 +2323,10 @@
         <v>70</v>
       </c>
       <c r="M13" s="7">
-        <v>220</v>
+        <v>17</v>
       </c>
       <c r="N13" s="7">
-        <v>137032</v>
+        <v>10045</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>71</v>
@@ -2297,10 +2344,10 @@
         <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>9</v>
+        <v>113</v>
       </c>
       <c r="D14" s="7">
-        <v>5626</v>
+        <v>72243</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>74</v>
@@ -2312,10 +2359,10 @@
         <v>76</v>
       </c>
       <c r="H14" s="7">
-        <v>8</v>
+        <v>107</v>
       </c>
       <c r="I14" s="7">
-        <v>4418</v>
+        <v>64790</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>77</v>
@@ -2327,10 +2374,10 @@
         <v>79</v>
       </c>
       <c r="M14" s="7">
-        <v>17</v>
+        <v>220</v>
       </c>
       <c r="N14" s="7">
-        <v>10045</v>
+        <v>137032</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>80</v>
@@ -2354,13 +2401,13 @@
         <v>77869</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H15" s="7">
         <v>115</v>
@@ -2369,13 +2416,13 @@
         <v>69208</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M15" s="7">
         <v>237</v>
@@ -2384,13 +2431,13 @@
         <v>147077</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2401,10 +2448,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>122</v>
+        <v>9</v>
       </c>
       <c r="D16" s="7">
-        <v>83826</v>
+        <v>6217</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>84</v>
@@ -2416,10 +2463,10 @@
         <v>86</v>
       </c>
       <c r="H16" s="7">
-        <v>114</v>
+        <v>10</v>
       </c>
       <c r="I16" s="7">
-        <v>88553</v>
+        <v>7436</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>87</v>
@@ -2431,10 +2478,10 @@
         <v>89</v>
       </c>
       <c r="M16" s="7">
-        <v>236</v>
+        <v>19</v>
       </c>
       <c r="N16" s="7">
-        <v>172379</v>
+        <v>13653</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>90</v>
@@ -2452,10 +2499,10 @@
         <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>9</v>
+        <v>122</v>
       </c>
       <c r="D17" s="7">
-        <v>6217</v>
+        <v>83826</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>93</v>
@@ -2467,10 +2514,10 @@
         <v>95</v>
       </c>
       <c r="H17" s="7">
-        <v>10</v>
+        <v>114</v>
       </c>
       <c r="I17" s="7">
-        <v>7436</v>
+        <v>88553</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>96</v>
@@ -2482,10 +2529,10 @@
         <v>98</v>
       </c>
       <c r="M17" s="7">
-        <v>19</v>
+        <v>236</v>
       </c>
       <c r="N17" s="7">
-        <v>13653</v>
+        <v>172379</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>99</v>
@@ -2509,13 +2556,13 @@
         <v>90043</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H18" s="7">
         <v>124</v>
@@ -2524,13 +2571,13 @@
         <v>95989</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M18" s="7">
         <v>255</v>
@@ -2539,13 +2586,13 @@
         <v>186032</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2556,10 +2603,10 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>509</v>
+        <v>36</v>
       </c>
       <c r="D19" s="7">
-        <v>337590</v>
+        <v>24141</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>102</v>
@@ -2571,10 +2618,10 @@
         <v>104</v>
       </c>
       <c r="H19" s="7">
-        <v>483</v>
+        <v>39</v>
       </c>
       <c r="I19" s="7">
-        <v>325189</v>
+        <v>25741</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>90</v>
@@ -2586,10 +2633,10 @@
         <v>106</v>
       </c>
       <c r="M19" s="7">
-        <v>992</v>
+        <v>75</v>
       </c>
       <c r="N19" s="7">
-        <v>662779</v>
+        <v>49882</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>107</v>
@@ -2607,10 +2654,10 @@
         <v>18</v>
       </c>
       <c r="C20" s="7">
-        <v>36</v>
+        <v>509</v>
       </c>
       <c r="D20" s="7">
-        <v>24141</v>
+        <v>337590</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>110</v>
@@ -2622,10 +2669,10 @@
         <v>112</v>
       </c>
       <c r="H20" s="7">
-        <v>39</v>
+        <v>483</v>
       </c>
       <c r="I20" s="7">
-        <v>25741</v>
+        <v>325189</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>99</v>
@@ -2637,10 +2684,10 @@
         <v>114</v>
       </c>
       <c r="M20" s="7">
-        <v>75</v>
+        <v>992</v>
       </c>
       <c r="N20" s="7">
-        <v>49882</v>
+        <v>662779</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>115</v>
@@ -2664,13 +2711,13 @@
         <v>361731</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H21" s="7">
         <v>522</v>
@@ -2679,13 +2726,13 @@
         <v>350930</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M21" s="7">
         <v>1067</v>
@@ -2694,13 +2741,18 @@
         <v>712661</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -2721,8 +2773,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DA72EBC-4CE4-4F7E-BBD5-115E04DC4206}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04A580EA-B6EC-4B04-8566-04BDFE95EEFF}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2738,7 +2790,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2839,49 +2891,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>13040</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>119</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>13</v>
+        <v>120</v>
       </c>
       <c r="H4" s="7">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>12890</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>13</v>
+        <v>121</v>
       </c>
       <c r="M4" s="7">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="N4" s="7">
-        <v>25931</v>
+        <v>0</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>121</v>
+        <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>13</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2890,49 +2942,49 @@
         <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>13040</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>19</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>20</v>
+        <v>123</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>122</v>
+        <v>21</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>12890</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>19</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>20</v>
+        <v>124</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>123</v>
+        <v>21</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>25931</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>19</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>20</v>
+        <v>125</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>124</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2947,13 +2999,13 @@
         <v>13040</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H6" s="7">
         <v>15</v>
@@ -2962,13 +3014,13 @@
         <v>12890</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M6" s="7">
         <v>29</v>
@@ -2977,13 +3029,13 @@
         <v>25931</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2994,49 +3046,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>82</v>
+        <v>6</v>
       </c>
       <c r="D7" s="7">
-        <v>58242</v>
+        <v>3960</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>85</v>
+        <v>127</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="H7" s="7">
-        <v>79</v>
+        <v>5</v>
       </c>
       <c r="I7" s="7">
-        <v>57283</v>
+        <v>3744</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="M7" s="7">
-        <v>161</v>
+        <v>11</v>
       </c>
       <c r="N7" s="7">
-        <v>115525</v>
+        <v>7704</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>34</v>
+        <v>133</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3045,49 +3097,49 @@
         <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>6</v>
+        <v>82</v>
       </c>
       <c r="D8" s="7">
-        <v>3960</v>
+        <v>58242</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>95</v>
+        <v>137</v>
       </c>
       <c r="H8" s="7">
-        <v>5</v>
+        <v>79</v>
       </c>
       <c r="I8" s="7">
-        <v>3744</v>
+        <v>57283</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="M8" s="7">
-        <v>11</v>
+        <v>161</v>
       </c>
       <c r="N8" s="7">
-        <v>7704</v>
+        <v>115525</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>44</v>
+        <v>143</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3102,13 +3154,13 @@
         <v>62202</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H9" s="7">
         <v>84</v>
@@ -3117,13 +3169,13 @@
         <v>61027</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M9" s="7">
         <v>172</v>
@@ -3132,13 +3184,13 @@
         <v>123229</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3149,49 +3201,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>157</v>
+        <v>11</v>
       </c>
       <c r="D10" s="7">
-        <v>107465</v>
+        <v>7241</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="H10" s="7">
-        <v>162</v>
+        <v>7</v>
       </c>
       <c r="I10" s="7">
-        <v>107342</v>
+        <v>4511</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="M10" s="7">
-        <v>319</v>
+        <v>18</v>
       </c>
       <c r="N10" s="7">
-        <v>214807</v>
+        <v>11752</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>27</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3200,49 +3252,49 @@
         <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>11</v>
+        <v>157</v>
       </c>
       <c r="D11" s="7">
-        <v>7241</v>
+        <v>107465</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="H11" s="7">
-        <v>7</v>
+        <v>162</v>
       </c>
       <c r="I11" s="7">
-        <v>4511</v>
+        <v>107342</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="M11" s="7">
-        <v>18</v>
+        <v>319</v>
       </c>
       <c r="N11" s="7">
-        <v>11752</v>
+        <v>214807</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>36</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3257,13 +3309,13 @@
         <v>114706</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H12" s="7">
         <v>169</v>
@@ -3272,13 +3324,13 @@
         <v>111853</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M12" s="7">
         <v>337</v>
@@ -3287,13 +3339,13 @@
         <v>226559</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3304,49 +3356,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>120</v>
+        <v>3</v>
       </c>
       <c r="D13" s="7">
-        <v>77569</v>
+        <v>2184</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="H13" s="7">
-        <v>108</v>
+        <v>7</v>
       </c>
       <c r="I13" s="7">
-        <v>70054</v>
+        <v>4443</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="M13" s="7">
-        <v>228</v>
+        <v>10</v>
       </c>
       <c r="N13" s="7">
-        <v>147623</v>
+        <v>6627</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>46</v>
+        <v>167</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3355,49 +3407,49 @@
         <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>3</v>
+        <v>120</v>
       </c>
       <c r="D14" s="7">
-        <v>2184</v>
+        <v>77569</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="H14" s="7">
-        <v>7</v>
+        <v>108</v>
       </c>
       <c r="I14" s="7">
-        <v>4443</v>
+        <v>70054</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="M14" s="7">
-        <v>10</v>
+        <v>228</v>
       </c>
       <c r="N14" s="7">
-        <v>6627</v>
+        <v>147623</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>55</v>
+        <v>177</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3412,13 +3464,13 @@
         <v>79753</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H15" s="7">
         <v>115</v>
@@ -3427,13 +3479,13 @@
         <v>74497</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M15" s="7">
         <v>238</v>
@@ -3442,13 +3494,13 @@
         <v>154250</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3459,49 +3511,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>118</v>
+        <v>13</v>
       </c>
       <c r="D16" s="7">
-        <v>86474</v>
+        <v>9827</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="H16" s="7">
-        <v>110</v>
+        <v>10</v>
       </c>
       <c r="I16" s="7">
-        <v>85314</v>
+        <v>7663</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="M16" s="7">
-        <v>228</v>
+        <v>23</v>
       </c>
       <c r="N16" s="7">
-        <v>171787</v>
+        <v>17490</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3510,49 +3562,49 @@
         <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="D17" s="7">
-        <v>9827</v>
+        <v>86474</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="H17" s="7">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="I17" s="7">
-        <v>7663</v>
+        <v>85314</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="M17" s="7">
-        <v>23</v>
+        <v>228</v>
       </c>
       <c r="N17" s="7">
-        <v>17490</v>
+        <v>171787</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3567,13 +3619,13 @@
         <v>96301</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H18" s="7">
         <v>120</v>
@@ -3582,13 +3634,13 @@
         <v>92977</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M18" s="7">
         <v>251</v>
@@ -3597,13 +3649,13 @@
         <v>189277</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3614,49 +3666,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>491</v>
+        <v>33</v>
       </c>
       <c r="D19" s="7">
-        <v>342791</v>
+        <v>23211</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="H19" s="7">
-        <v>474</v>
+        <v>29</v>
       </c>
       <c r="I19" s="7">
-        <v>332883</v>
+        <v>20361</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="M19" s="7">
-        <v>965</v>
+        <v>62</v>
       </c>
       <c r="N19" s="7">
-        <v>675674</v>
+        <v>43572</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3665,49 +3717,49 @@
         <v>18</v>
       </c>
       <c r="C20" s="7">
-        <v>33</v>
+        <v>491</v>
       </c>
       <c r="D20" s="7">
-        <v>23211</v>
+        <v>342791</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="H20" s="7">
-        <v>29</v>
+        <v>474</v>
       </c>
       <c r="I20" s="7">
-        <v>20361</v>
+        <v>332883</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="M20" s="7">
-        <v>62</v>
+        <v>965</v>
       </c>
       <c r="N20" s="7">
-        <v>43572</v>
+        <v>675674</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3722,13 +3774,13 @@
         <v>366002</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H21" s="7">
         <v>503</v>
@@ -3737,13 +3789,13 @@
         <v>353244</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M21" s="7">
         <v>1027</v>
@@ -3752,13 +3804,18 @@
         <v>719246</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -3779,8 +3836,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D5C7A27-CF2A-4F32-917B-F9FFCC2F6DDC}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6565A3CC-24F6-4C10-B56A-564135CD256C}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3796,7 +3853,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3897,49 +3954,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>14431</v>
+        <v>1046</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>209</v>
+        <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="H4" s="7">
+        <v>1</v>
+      </c>
+      <c r="I4" s="7">
+        <v>1030</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="7">
-        <v>15</v>
-      </c>
-      <c r="I4" s="7">
-        <v>13972</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>211</v>
-      </c>
       <c r="L4" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="M4" s="7">
+        <v>2</v>
+      </c>
+      <c r="N4" s="7">
+        <v>2076</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="M4" s="7">
-        <v>32</v>
-      </c>
-      <c r="N4" s="7">
-        <v>28403</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>213</v>
-      </c>
       <c r="Q4" s="7" t="s">
-        <v>11</v>
+        <v>220</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3948,49 +4005,49 @@
         <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D5" s="7">
-        <v>1046</v>
+        <v>14431</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="F5" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="7" t="s">
-        <v>215</v>
-      </c>
       <c r="H5" s="7">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="I5" s="7">
-        <v>1030</v>
+        <v>13972</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="K5" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="L5" s="7" t="s">
-        <v>217</v>
-      </c>
       <c r="M5" s="7">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="N5" s="7">
-        <v>2076</v>
+        <v>28403</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="P5" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4005,13 +4062,13 @@
         <v>15477</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H6" s="7">
         <v>16</v>
@@ -4020,13 +4077,13 @@
         <v>15002</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M6" s="7">
         <v>34</v>
@@ -4035,13 +4092,13 @@
         <v>30479</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4052,49 +4109,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="D7" s="7">
-        <v>44711</v>
+        <v>15609</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="H7" s="7">
-        <v>67</v>
+        <v>15</v>
       </c>
       <c r="I7" s="7">
-        <v>45143</v>
+        <v>10695</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="M7" s="7">
-        <v>126</v>
+        <v>35</v>
       </c>
       <c r="N7" s="7">
-        <v>89854</v>
+        <v>26304</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4103,49 +4160,49 @@
         <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="D8" s="7">
-        <v>15609</v>
+        <v>44711</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="H8" s="7">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="I8" s="7">
-        <v>10695</v>
+        <v>45143</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="M8" s="7">
-        <v>35</v>
+        <v>126</v>
       </c>
       <c r="N8" s="7">
-        <v>26304</v>
+        <v>89854</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4160,13 +4217,13 @@
         <v>60320</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H9" s="7">
         <v>82</v>
@@ -4175,13 +4232,13 @@
         <v>55838</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M9" s="7">
         <v>161</v>
@@ -4190,13 +4247,13 @@
         <v>116158</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4207,49 +4264,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>126</v>
+        <v>31</v>
       </c>
       <c r="D10" s="7">
-        <v>87297</v>
+        <v>21295</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>239</v>
+        <v>89</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="H10" s="7">
-        <v>132</v>
+        <v>34</v>
       </c>
       <c r="I10" s="7">
-        <v>85810</v>
+        <v>21373</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="M10" s="7">
-        <v>258</v>
+        <v>65</v>
       </c>
       <c r="N10" s="7">
-        <v>173106</v>
+        <v>42668</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4258,49 +4315,49 @@
         <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>31</v>
+        <v>126</v>
       </c>
       <c r="D11" s="7">
-        <v>21295</v>
+        <v>87297</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>249</v>
+        <v>97</v>
       </c>
       <c r="H11" s="7">
-        <v>34</v>
+        <v>132</v>
       </c>
       <c r="I11" s="7">
-        <v>21373</v>
+        <v>85810</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="M11" s="7">
-        <v>65</v>
+        <v>258</v>
       </c>
       <c r="N11" s="7">
-        <v>42668</v>
+        <v>173106</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4315,13 +4372,13 @@
         <v>108592</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H12" s="7">
         <v>166</v>
@@ -4330,13 +4387,13 @@
         <v>107183</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M12" s="7">
         <v>323</v>
@@ -4345,13 +4402,13 @@
         <v>215774</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4362,49 +4419,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>89</v>
+        <v>22</v>
       </c>
       <c r="D13" s="7">
-        <v>60663</v>
+        <v>16200</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>128</v>
+        <v>263</v>
       </c>
       <c r="H13" s="7">
-        <v>98</v>
+        <v>21</v>
       </c>
       <c r="I13" s="7">
-        <v>62562</v>
+        <v>13026</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="M13" s="7">
-        <v>187</v>
+        <v>43</v>
       </c>
       <c r="N13" s="7">
-        <v>123226</v>
+        <v>29225</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4413,49 +4470,49 @@
         <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>22</v>
+        <v>89</v>
       </c>
       <c r="D14" s="7">
-        <v>16200</v>
+        <v>60663</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>136</v>
+        <v>271</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="H14" s="7">
-        <v>21</v>
+        <v>98</v>
       </c>
       <c r="I14" s="7">
-        <v>13026</v>
+        <v>62562</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="M14" s="7">
-        <v>43</v>
+        <v>187</v>
       </c>
       <c r="N14" s="7">
-        <v>29225</v>
+        <v>123226</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4470,13 +4527,13 @@
         <v>76863</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H15" s="7">
         <v>119</v>
@@ -4485,13 +4542,13 @@
         <v>75588</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M15" s="7">
         <v>230</v>
@@ -4500,13 +4557,13 @@
         <v>152451</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4517,49 +4574,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>121</v>
+        <v>24</v>
       </c>
       <c r="D16" s="7">
-        <v>88968</v>
+        <v>17789</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="H16" s="7">
-        <v>114</v>
+        <v>30</v>
       </c>
       <c r="I16" s="7">
-        <v>86353</v>
+        <v>22654</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="M16" s="7">
-        <v>235</v>
+        <v>54</v>
       </c>
       <c r="N16" s="7">
-        <v>175321</v>
+        <v>40443</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4568,49 +4625,49 @@
         <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>24</v>
+        <v>121</v>
       </c>
       <c r="D17" s="7">
-        <v>17789</v>
+        <v>88968</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="H17" s="7">
-        <v>30</v>
+        <v>114</v>
       </c>
       <c r="I17" s="7">
-        <v>22654</v>
+        <v>86353</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="M17" s="7">
-        <v>54</v>
+        <v>235</v>
       </c>
       <c r="N17" s="7">
-        <v>40443</v>
+        <v>175321</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4625,13 +4682,13 @@
         <v>106757</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H18" s="7">
         <v>144</v>
@@ -4640,13 +4697,13 @@
         <v>109007</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M18" s="7">
         <v>289</v>
@@ -4655,13 +4712,13 @@
         <v>215764</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4672,49 +4729,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>412</v>
+        <v>98</v>
       </c>
       <c r="D19" s="7">
-        <v>296070</v>
+        <v>71938</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="H19" s="7">
-        <v>426</v>
+        <v>101</v>
       </c>
       <c r="I19" s="7">
-        <v>293840</v>
+        <v>68778</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="M19" s="7">
-        <v>838</v>
+        <v>199</v>
       </c>
       <c r="N19" s="7">
-        <v>589910</v>
+        <v>140716</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4723,49 +4780,49 @@
         <v>18</v>
       </c>
       <c r="C20" s="7">
-        <v>98</v>
+        <v>412</v>
       </c>
       <c r="D20" s="7">
-        <v>71938</v>
+        <v>296070</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="H20" s="7">
-        <v>101</v>
+        <v>426</v>
       </c>
       <c r="I20" s="7">
-        <v>68778</v>
+        <v>293840</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="M20" s="7">
-        <v>199</v>
+        <v>838</v>
       </c>
       <c r="N20" s="7">
-        <v>140716</v>
+        <v>589910</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4780,13 +4837,13 @@
         <v>368008</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H21" s="7">
         <v>527</v>
@@ -4795,13 +4852,13 @@
         <v>362618</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M21" s="7">
         <v>1037</v>
@@ -4810,13 +4867,18 @@
         <v>730626</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -4837,8 +4899,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3DAFA37-2D5F-49CE-84BA-4EE02BBA75FA}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6A7B5A0-30FF-4A05-8398-D136F77E87B6}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4854,7 +4916,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4955,49 +5017,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>5595</v>
+        <v>910</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>310</v>
+        <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="H4" s="7">
+        <v>2</v>
+      </c>
+      <c r="I4" s="7">
+        <v>1149</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="7">
-        <v>13</v>
-      </c>
-      <c r="I4" s="7">
-        <v>8370</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>312</v>
-      </c>
       <c r="L4" s="7" t="s">
-        <v>11</v>
+        <v>319</v>
       </c>
       <c r="M4" s="7">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="N4" s="7">
-        <v>13964</v>
+        <v>2059</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>86</v>
+        <v>322</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5006,49 +5068,49 @@
         <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D5" s="7">
-        <v>910</v>
+        <v>5595</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="F5" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="7" t="s">
-        <v>316</v>
-      </c>
       <c r="H5" s="7">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="I5" s="7">
-        <v>1149</v>
+        <v>8370</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="K5" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="L5" s="7" t="s">
-        <v>318</v>
-      </c>
       <c r="M5" s="7">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="N5" s="7">
-        <v>2059</v>
+        <v>13964</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>94</v>
+        <v>328</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>320</v>
+        <v>329</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5063,13 +5125,13 @@
         <v>6505</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H6" s="7">
         <v>15</v>
@@ -5078,13 +5140,13 @@
         <v>9519</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M6" s="7">
         <v>24</v>
@@ -5093,13 +5155,13 @@
         <v>16023</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5110,49 +5172,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="D7" s="7">
-        <v>47391</v>
+        <v>24361</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>321</v>
+        <v>330</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="H7" s="7">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="I7" s="7">
-        <v>40142</v>
+        <v>22380</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>324</v>
+        <v>333</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>326</v>
+        <v>335</v>
       </c>
       <c r="M7" s="7">
-        <v>119</v>
+        <v>60</v>
       </c>
       <c r="N7" s="7">
-        <v>87533</v>
+        <v>46741</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>327</v>
+        <v>336</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>329</v>
+        <v>338</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5161,49 +5223,49 @@
         <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="D8" s="7">
-        <v>24361</v>
+        <v>47391</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>330</v>
+        <v>339</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>331</v>
+        <v>340</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>332</v>
+        <v>341</v>
       </c>
       <c r="H8" s="7">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="I8" s="7">
-        <v>22380</v>
+        <v>40142</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>334</v>
+        <v>343</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>335</v>
+        <v>344</v>
       </c>
       <c r="M8" s="7">
-        <v>60</v>
+        <v>119</v>
       </c>
       <c r="N8" s="7">
-        <v>46741</v>
+        <v>87533</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>336</v>
+        <v>345</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>338</v>
+        <v>347</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5218,13 +5280,13 @@
         <v>71752</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H9" s="7">
         <v>95</v>
@@ -5233,13 +5295,13 @@
         <v>62522</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M9" s="7">
         <v>179</v>
@@ -5248,13 +5310,13 @@
         <v>134274</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5265,49 +5327,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>118</v>
+        <v>93</v>
       </c>
       <c r="D10" s="7">
-        <v>92589</v>
+        <v>74361</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>339</v>
+        <v>348</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>340</v>
+        <v>349</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>341</v>
+        <v>350</v>
       </c>
       <c r="H10" s="7">
-        <v>104</v>
+        <v>59</v>
       </c>
       <c r="I10" s="7">
-        <v>73499</v>
+        <v>45001</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>343</v>
+        <v>352</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>344</v>
+        <v>353</v>
       </c>
       <c r="M10" s="7">
-        <v>222</v>
+        <v>152</v>
       </c>
       <c r="N10" s="7">
-        <v>166087</v>
+        <v>119362</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>345</v>
+        <v>354</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>346</v>
+        <v>355</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>347</v>
+        <v>356</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5316,49 +5378,49 @@
         <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>93</v>
+        <v>118</v>
       </c>
       <c r="D11" s="7">
-        <v>74361</v>
+        <v>92589</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>348</v>
+        <v>357</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>349</v>
+        <v>358</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>350</v>
+        <v>359</v>
       </c>
       <c r="H11" s="7">
-        <v>59</v>
+        <v>104</v>
       </c>
       <c r="I11" s="7">
-        <v>45001</v>
+        <v>73499</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>351</v>
+        <v>360</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>352</v>
+        <v>361</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>353</v>
+        <v>362</v>
       </c>
       <c r="M11" s="7">
-        <v>152</v>
+        <v>222</v>
       </c>
       <c r="N11" s="7">
-        <v>119362</v>
+        <v>166087</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>354</v>
+        <v>363</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>356</v>
+        <v>365</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5373,13 +5435,13 @@
         <v>166950</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H12" s="7">
         <v>163</v>
@@ -5388,13 +5450,13 @@
         <v>118500</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M12" s="7">
         <v>374</v>
@@ -5403,13 +5465,13 @@
         <v>285449</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5420,49 +5482,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>106</v>
+        <v>22</v>
       </c>
       <c r="D13" s="7">
-        <v>87414</v>
+        <v>24407</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>358</v>
+        <v>367</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>359</v>
+        <v>368</v>
       </c>
       <c r="H13" s="7">
-        <v>114</v>
+        <v>28</v>
       </c>
       <c r="I13" s="7">
-        <v>83803</v>
+        <v>21483</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>360</v>
+        <v>369</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>361</v>
+        <v>370</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>362</v>
+        <v>371</v>
       </c>
       <c r="M13" s="7">
-        <v>220</v>
+        <v>50</v>
       </c>
       <c r="N13" s="7">
-        <v>171216</v>
+        <v>45891</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>363</v>
+        <v>372</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>365</v>
+        <v>374</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5471,49 +5533,49 @@
         <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>22</v>
+        <v>106</v>
       </c>
       <c r="D14" s="7">
-        <v>24407</v>
+        <v>87414</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>366</v>
+        <v>375</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>367</v>
+        <v>376</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>368</v>
+        <v>377</v>
       </c>
       <c r="H14" s="7">
-        <v>28</v>
+        <v>114</v>
       </c>
       <c r="I14" s="7">
-        <v>21483</v>
+        <v>83803</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>369</v>
+        <v>378</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>370</v>
+        <v>379</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>371</v>
+        <v>380</v>
       </c>
       <c r="M14" s="7">
-        <v>50</v>
+        <v>220</v>
       </c>
       <c r="N14" s="7">
-        <v>45891</v>
+        <v>171216</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>372</v>
+        <v>381</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>374</v>
+        <v>383</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5528,13 +5590,13 @@
         <v>111821</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H15" s="7">
         <v>142</v>
@@ -5543,13 +5605,13 @@
         <v>105286</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M15" s="7">
         <v>270</v>
@@ -5558,13 +5620,13 @@
         <v>217107</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5575,49 +5637,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>98</v>
+        <v>40</v>
       </c>
       <c r="D16" s="7">
-        <v>75131</v>
+        <v>32644</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>375</v>
+        <v>384</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>376</v>
+        <v>385</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>377</v>
+        <v>386</v>
       </c>
       <c r="H16" s="7">
-        <v>93</v>
+        <v>46</v>
       </c>
       <c r="I16" s="7">
-        <v>68330</v>
+        <v>35867</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>378</v>
+        <v>387</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>379</v>
+        <v>388</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>380</v>
+        <v>389</v>
       </c>
       <c r="M16" s="7">
-        <v>191</v>
+        <v>86</v>
       </c>
       <c r="N16" s="7">
-        <v>143461</v>
+        <v>68511</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>381</v>
+        <v>390</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>382</v>
+        <v>391</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>383</v>
+        <v>392</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5626,49 +5688,49 @@
         <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>40</v>
+        <v>98</v>
       </c>
       <c r="D17" s="7">
-        <v>32644</v>
+        <v>75131</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>384</v>
+        <v>393</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>385</v>
+        <v>394</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>386</v>
+        <v>395</v>
       </c>
       <c r="H17" s="7">
-        <v>46</v>
+        <v>93</v>
       </c>
       <c r="I17" s="7">
-        <v>35867</v>
+        <v>68330</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>387</v>
+        <v>396</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>388</v>
+        <v>397</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>389</v>
+        <v>398</v>
       </c>
       <c r="M17" s="7">
-        <v>86</v>
+        <v>191</v>
       </c>
       <c r="N17" s="7">
-        <v>68511</v>
+        <v>143461</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>390</v>
+        <v>399</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>391</v>
+        <v>400</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>392</v>
+        <v>401</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5683,13 +5745,13 @@
         <v>107775</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H18" s="7">
         <v>139</v>
@@ -5698,13 +5760,13 @@
         <v>104197</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M18" s="7">
         <v>277</v>
@@ -5713,13 +5775,13 @@
         <v>211972</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5730,49 +5792,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>384</v>
+        <v>186</v>
       </c>
       <c r="D19" s="7">
-        <v>308120</v>
+        <v>156683</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>393</v>
+        <v>402</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>394</v>
+        <v>403</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>395</v>
+        <v>404</v>
       </c>
       <c r="H19" s="7">
-        <v>389</v>
+        <v>165</v>
       </c>
       <c r="I19" s="7">
-        <v>274143</v>
+        <v>125881</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>396</v>
+        <v>405</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>397</v>
+        <v>406</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>398</v>
+        <v>407</v>
       </c>
       <c r="M19" s="7">
-        <v>773</v>
+        <v>351</v>
       </c>
       <c r="N19" s="7">
-        <v>582262</v>
+        <v>282564</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>399</v>
+        <v>408</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>400</v>
+        <v>409</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>401</v>
+        <v>410</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5781,49 +5843,49 @@
         <v>18</v>
       </c>
       <c r="C20" s="7">
-        <v>186</v>
+        <v>384</v>
       </c>
       <c r="D20" s="7">
-        <v>156683</v>
+        <v>308120</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>402</v>
+        <v>411</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>403</v>
+        <v>412</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>404</v>
+        <v>413</v>
       </c>
       <c r="H20" s="7">
-        <v>165</v>
+        <v>389</v>
       </c>
       <c r="I20" s="7">
-        <v>125881</v>
+        <v>274143</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>405</v>
+        <v>414</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>406</v>
+        <v>415</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>407</v>
+        <v>416</v>
       </c>
       <c r="M20" s="7">
-        <v>351</v>
+        <v>773</v>
       </c>
       <c r="N20" s="7">
-        <v>282564</v>
+        <v>582262</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>408</v>
+        <v>417</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>409</v>
+        <v>418</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>410</v>
+        <v>419</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5838,13 +5900,13 @@
         <v>464803</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H21" s="7">
         <v>554</v>
@@ -5853,13 +5915,13 @@
         <v>400024</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M21" s="7">
         <v>1124</v>
@@ -5868,13 +5930,18 @@
         <v>864826</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP19C02-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP19C02-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{995456C0-8692-462B-B1FB-860348640CED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{651F6042-45FC-4C6B-A8E1-E4F3D3606C13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{83C1DC32-A6FE-43D8-BE29-20A9FB46F7E5}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6D869BCD-D12B-4C0E-AA55-0191386EA158}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="420">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="414">
   <si>
     <t>Menores según su última visita al dentista fue por limpieza de boca en 2007 (Tasa respuesta: 50,71%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Sí</t>
@@ -86,13 +86,13 @@
     <t>4,51%</t>
   </si>
   <si>
-    <t>23,02%</t>
+    <t>33,45%</t>
   </si>
   <si>
     <t>2,53%</t>
   </si>
   <si>
-    <t>14,2%</t>
+    <t>14,72%</t>
   </si>
   <si>
     <t>No</t>
@@ -110,289 +110,289 @@
     <t>95,49%</t>
   </si>
   <si>
-    <t>76,98%</t>
+    <t>66,55%</t>
   </si>
   <si>
     <t>97,47%</t>
   </si>
   <si>
-    <t>85,8%</t>
-  </si>
-  <si>
-    <t>2/10</t>
+    <t>85,28%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>5,19%</t>
   </si>
   <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
   </si>
   <si>
     <t>7,03%</t>
   </si>
   <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
   </si>
   <si>
     <t>6,03%</t>
   </si>
   <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
   </si>
   <si>
     <t>94,81%</t>
   </si>
   <si>
-    <t>88,47%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
+    <t>88,86%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
   </si>
   <si>
     <t>92,97%</t>
   </si>
   <si>
-    <t>86,38%</t>
-  </si>
-  <si>
-    <t>97,49%</t>
+    <t>86,09%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
   </si>
   <si>
     <t>93,97%</t>
   </si>
   <si>
-    <t>89,6%</t>
-  </si>
-  <si>
-    <t>96,74%</t>
-  </si>
-  <si>
-    <t>10/50</t>
+    <t>90,33%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>7,84%</t>
   </si>
   <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>92,16%</t>
+  </si>
+  <si>
+    <t>86,78%</t>
+  </si>
+  <si>
+    <t>95,8%</t>
+  </si>
+  <si>
+    <t>91,81%</t>
+  </si>
+  <si>
+    <t>87,01%</t>
+  </si>
+  <si>
+    <t>95,28%</t>
+  </si>
+  <si>
+    <t>91,99%</t>
+  </si>
+  <si>
+    <t>88,56%</t>
+  </si>
+  <si>
+    <t>94,42%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
     <t>4,28%</t>
   </si>
   <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>92,16%</t>
-  </si>
-  <si>
-    <t>87,46%</t>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>92,77%</t>
+  </si>
+  <si>
+    <t>87,36%</t>
+  </si>
+  <si>
+    <t>96,61%</t>
+  </si>
+  <si>
+    <t>93,62%</t>
+  </si>
+  <si>
+    <t>87,6%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>93,17%</t>
+  </si>
+  <si>
+    <t>89,43%</t>
   </si>
   <si>
     <t>95,72%</t>
   </si>
   <si>
-    <t>91,81%</t>
-  </si>
-  <si>
-    <t>86,87%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>91,99%</t>
-  </si>
-  <si>
-    <t>88,91%</t>
-  </si>
-  <si>
-    <t>94,62%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>92,77%</t>
-  </si>
-  <si>
-    <t>87,01%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>93,62%</t>
-  </si>
-  <si>
-    <t>88,26%</t>
-  </si>
-  <si>
-    <t>97,07%</t>
-  </si>
-  <si>
-    <t>93,17%</t>
-  </si>
-  <si>
-    <t>89,22%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
-  </si>
-  <si>
     <t>Capitales</t>
   </si>
   <si>
     <t>6,9%</t>
   </si>
   <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
   </si>
   <si>
     <t>7,75%</t>
   </si>
   <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>13,09%</t>
   </si>
   <si>
     <t>7,34%</t>
   </si>
   <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
   </si>
   <si>
     <t>93,1%</t>
   </si>
   <si>
-    <t>86,95%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
+    <t>87,48%</t>
+  </si>
+  <si>
+    <t>96,94%</t>
   </si>
   <si>
     <t>92,25%</t>
   </si>
   <si>
-    <t>86,36%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
+    <t>86,91%</t>
+  </si>
+  <si>
+    <t>96,19%</t>
   </si>
   <si>
     <t>92,66%</t>
   </si>
   <si>
-    <t>88,67%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
+    <t>89,18%</t>
+  </si>
+  <si>
+    <t>95,47%</t>
   </si>
   <si>
     <t>6,67%</t>
   </si>
   <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
   </si>
   <si>
     <t>7,0%</t>
   </si>
   <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
   </si>
   <si>
     <t>93,33%</t>
   </si>
   <si>
-    <t>91,18%</t>
-  </si>
-  <si>
-    <t>95,26%</t>
-  </si>
-  <si>
-    <t>90,04%</t>
-  </si>
-  <si>
-    <t>94,65%</t>
+    <t>90,97%</t>
+  </si>
+  <si>
+    <t>95,04%</t>
+  </si>
+  <si>
+    <t>89,91%</t>
+  </si>
+  <si>
+    <t>94,67%</t>
   </si>
   <si>
     <t>93,0%</t>
   </si>
   <si>
-    <t>91,37%</t>
-  </si>
-  <si>
-    <t>94,35%</t>
+    <t>91,38%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -422,166 +422,160 @@
     <t>6,37%</t>
   </si>
   <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
   </si>
   <si>
     <t>6,14%</t>
   </si>
   <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>13,02%</t>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
   </si>
   <si>
     <t>6,25%</t>
   </si>
   <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
+    <t>10,48%</t>
   </si>
   <si>
     <t>93,63%</t>
   </si>
   <si>
-    <t>87,11%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
+    <t>87,05%</t>
+  </si>
+  <si>
+    <t>96,97%</t>
   </si>
   <si>
     <t>93,86%</t>
   </si>
   <si>
-    <t>86,98%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
+    <t>87,0%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
   </si>
   <si>
     <t>93,75%</t>
   </si>
   <si>
-    <t>89,5%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
+    <t>89,52%</t>
   </si>
   <si>
     <t>6,31%</t>
   </si>
   <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
   </si>
   <si>
     <t>4,03%</t>
   </si>
   <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
   </si>
   <si>
     <t>93,69%</t>
   </si>
   <si>
-    <t>89,71%</t>
-  </si>
-  <si>
-    <t>96,65%</t>
+    <t>89,17%</t>
+  </si>
+  <si>
+    <t>96,55%</t>
   </si>
   <si>
     <t>95,97%</t>
   </si>
   <si>
-    <t>92,13%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>91,92%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
+    <t>92,3%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>92,12%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
   </si>
   <si>
     <t>2,74%</t>
   </si>
   <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
   </si>
   <si>
     <t>5,96%</t>
   </si>
   <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
   </si>
   <si>
     <t>4,3%</t>
   </si>
   <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
   </si>
   <si>
     <t>97,26%</t>
   </si>
   <si>
-    <t>92,34%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
+    <t>92,21%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
   </si>
   <si>
     <t>94,04%</t>
   </si>
   <si>
-    <t>88,46%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
+    <t>87,28%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
   </si>
   <si>
     <t>95,7%</t>
   </si>
   <si>
-    <t>92,29%</t>
-  </si>
-  <si>
-    <t>98,01%</t>
+    <t>92,44%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
   </si>
   <si>
     <t>10,2%</t>
   </si>
   <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>17,58%</t>
   </si>
   <si>
     <t>8,24%</t>
@@ -590,31 +584,31 @@
     <t>4,12%</t>
   </si>
   <si>
-    <t>14,91%</t>
+    <t>14,0%</t>
   </si>
   <si>
     <t>9,24%</t>
   </si>
   <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
   </si>
   <si>
     <t>89,8%</t>
   </si>
   <si>
-    <t>83,7%</t>
-  </si>
-  <si>
-    <t>94,18%</t>
+    <t>82,42%</t>
+  </si>
+  <si>
+    <t>94,29%</t>
   </si>
   <si>
     <t>91,76%</t>
   </si>
   <si>
-    <t>85,09%</t>
+    <t>86,0%</t>
   </si>
   <si>
     <t>95,88%</t>
@@ -623,682 +617,670 @@
     <t>90,76%</t>
   </si>
   <si>
-    <t>86,49%</t>
-  </si>
-  <si>
-    <t>93,81%</t>
+    <t>86,57%</t>
+  </si>
+  <si>
+    <t>93,84%</t>
   </si>
   <si>
     <t>6,34%</t>
   </si>
   <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
   </si>
   <si>
     <t>5,76%</t>
   </si>
   <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
   </si>
   <si>
     <t>6,06%</t>
   </si>
   <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
   </si>
   <si>
     <t>93,66%</t>
   </si>
   <si>
-    <t>91,14%</t>
-  </si>
-  <si>
-    <t>95,31%</t>
+    <t>91,23%</t>
+  </si>
+  <si>
+    <t>95,6%</t>
   </si>
   <si>
     <t>94,24%</t>
   </si>
   <si>
-    <t>91,95%</t>
-  </si>
-  <si>
-    <t>96,04%</t>
+    <t>91,75%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
   </si>
   <si>
     <t>93,94%</t>
   </si>
   <si>
-    <t>92,22%</t>
-  </si>
-  <si>
-    <t>95,18%</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al dentista fue por limpieza de boca en 2015 (Tasa respuesta: 48,78%)</t>
+    <t>92,32%</t>
+  </si>
+  <si>
+    <t>95,29%</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al dentista fue por limpieza de boca en 2016 (Tasa respuesta: 48,78%)</t>
   </si>
   <si>
     <t>6,76%</t>
   </si>
   <si>
-    <t>27,27%</t>
+    <t>26,9%</t>
   </si>
   <si>
     <t>6,87%</t>
   </si>
   <si>
-    <t>33,34%</t>
+    <t>30,29%</t>
   </si>
   <si>
     <t>6,81%</t>
   </si>
   <si>
-    <t>21,5%</t>
+    <t>23,03%</t>
   </si>
   <si>
     <t>93,24%</t>
   </si>
   <si>
-    <t>72,73%</t>
+    <t>73,1%</t>
   </si>
   <si>
     <t>93,13%</t>
   </si>
   <si>
-    <t>66,66%</t>
+    <t>69,71%</t>
   </si>
   <si>
     <t>93,19%</t>
   </si>
   <si>
-    <t>78,5%</t>
+    <t>76,97%</t>
   </si>
   <si>
     <t>25,88%</t>
   </si>
   <si>
-    <t>16,55%</t>
-  </si>
-  <si>
-    <t>35,91%</t>
+    <t>16,91%</t>
+  </si>
+  <si>
+    <t>36,01%</t>
   </si>
   <si>
     <t>19,15%</t>
   </si>
   <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>29,51%</t>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>29,41%</t>
   </si>
   <si>
     <t>22,64%</t>
   </si>
   <si>
-    <t>16,6%</t>
-  </si>
-  <si>
-    <t>29,61%</t>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>28,78%</t>
   </si>
   <si>
     <t>74,12%</t>
   </si>
   <si>
-    <t>64,09%</t>
-  </si>
-  <si>
-    <t>83,45%</t>
+    <t>63,99%</t>
+  </si>
+  <si>
+    <t>83,09%</t>
   </si>
   <si>
     <t>80,85%</t>
   </si>
   <si>
-    <t>70,49%</t>
-  </si>
-  <si>
-    <t>88,22%</t>
+    <t>70,59%</t>
+  </si>
+  <si>
+    <t>88,99%</t>
   </si>
   <si>
     <t>77,36%</t>
   </si>
   <si>
-    <t>70,39%</t>
-  </si>
-  <si>
-    <t>83,4%</t>
+    <t>71,22%</t>
+  </si>
+  <si>
+    <t>82,92%</t>
   </si>
   <si>
     <t>19,61%</t>
   </si>
   <si>
-    <t>26,3%</t>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>26,13%</t>
   </si>
   <si>
     <t>19,94%</t>
   </si>
   <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>25,93%</t>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>27,21%</t>
   </si>
   <si>
     <t>19,77%</t>
   </si>
   <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>24,71%</t>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>24,13%</t>
   </si>
   <si>
     <t>80,39%</t>
   </si>
   <si>
-    <t>73,7%</t>
+    <t>73,87%</t>
+  </si>
+  <si>
+    <t>86,21%</t>
   </si>
   <si>
     <t>80,06%</t>
   </si>
   <si>
-    <t>74,07%</t>
-  </si>
-  <si>
-    <t>86,35%</t>
+    <t>72,79%</t>
+  </si>
+  <si>
+    <t>85,1%</t>
   </si>
   <si>
     <t>80,23%</t>
   </si>
   <si>
-    <t>75,29%</t>
-  </si>
-  <si>
-    <t>84,32%</t>
+    <t>75,87%</t>
+  </si>
+  <si>
+    <t>84,51%</t>
   </si>
   <si>
     <t>21,08%</t>
   </si>
   <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>29,62%</t>
+    <t>29,05%</t>
   </si>
   <si>
     <t>17,23%</t>
   </si>
   <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>25,14%</t>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>25,07%</t>
   </si>
   <si>
     <t>19,17%</t>
   </si>
   <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>24,8%</t>
+    <t>14,92%</t>
+  </si>
+  <si>
+    <t>25,75%</t>
   </si>
   <si>
     <t>78,92%</t>
   </si>
   <si>
-    <t>70,38%</t>
-  </si>
-  <si>
-    <t>85,43%</t>
+    <t>70,95%</t>
   </si>
   <si>
     <t>82,77%</t>
   </si>
   <si>
-    <t>74,86%</t>
-  </si>
-  <si>
-    <t>88,75%</t>
+    <t>74,93%</t>
+  </si>
+  <si>
+    <t>88,71%</t>
   </si>
   <si>
     <t>80,83%</t>
   </si>
   <si>
-    <t>75,2%</t>
-  </si>
-  <si>
-    <t>85,63%</t>
+    <t>74,25%</t>
+  </si>
+  <si>
+    <t>85,08%</t>
   </si>
   <si>
     <t>16,66%</t>
   </si>
   <si>
-    <t>11,29%</t>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>23,94%</t>
+  </si>
+  <si>
+    <t>20,78%</t>
+  </si>
+  <si>
+    <t>14,89%</t>
+  </si>
+  <si>
+    <t>28,14%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>23,51%</t>
+  </si>
+  <si>
+    <t>83,34%</t>
+  </si>
+  <si>
+    <t>76,06%</t>
+  </si>
+  <si>
+    <t>88,38%</t>
+  </si>
+  <si>
+    <t>79,22%</t>
+  </si>
+  <si>
+    <t>71,86%</t>
+  </si>
+  <si>
+    <t>85,11%</t>
+  </si>
+  <si>
+    <t>81,26%</t>
+  </si>
+  <si>
+    <t>76,49%</t>
+  </si>
+  <si>
+    <t>85,49%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>23,15%</t>
+  </si>
+  <si>
+    <t>18,97%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>22,15%</t>
+  </si>
+  <si>
+    <t>19,26%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>21,92%</t>
+  </si>
+  <si>
+    <t>80,45%</t>
+  </si>
+  <si>
+    <t>76,85%</t>
+  </si>
+  <si>
+    <t>83,93%</t>
+  </si>
+  <si>
+    <t>81,03%</t>
+  </si>
+  <si>
+    <t>77,85%</t>
+  </si>
+  <si>
+    <t>84,62%</t>
+  </si>
+  <si>
+    <t>80,74%</t>
+  </si>
+  <si>
+    <t>78,08%</t>
+  </si>
+  <si>
+    <t>83,15%</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al dentista fue por limpieza de boca en 2023 (Tasa respuesta: 58,54%)</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>56,71%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>33,33%</t>
+  </si>
+  <si>
+    <t>12,85%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>35,06%</t>
+  </si>
+  <si>
+    <t>86,01%</t>
+  </si>
+  <si>
+    <t>43,29%</t>
+  </si>
+  <si>
+    <t>87,93%</t>
+  </si>
+  <si>
+    <t>66,67%</t>
+  </si>
+  <si>
+    <t>87,15%</t>
+  </si>
+  <si>
+    <t>64,94%</t>
+  </si>
+  <si>
+    <t>96,54%</t>
+  </si>
+  <si>
+    <t>33,95%</t>
   </si>
   <si>
     <t>22,59%</t>
   </si>
   <si>
-    <t>20,78%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>27,64%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>23,45%</t>
-  </si>
-  <si>
-    <t>83,34%</t>
+    <t>45,59%</t>
+  </si>
+  <si>
+    <t>35,8%</t>
+  </si>
+  <si>
+    <t>25,5%</t>
+  </si>
+  <si>
+    <t>47,07%</t>
+  </si>
+  <si>
+    <t>34,81%</t>
+  </si>
+  <si>
+    <t>26,99%</t>
+  </si>
+  <si>
+    <t>42,88%</t>
+  </si>
+  <si>
+    <t>66,05%</t>
+  </si>
+  <si>
+    <t>54,41%</t>
   </si>
   <si>
     <t>77,41%</t>
   </si>
   <si>
-    <t>88,71%</t>
-  </si>
-  <si>
-    <t>79,22%</t>
-  </si>
-  <si>
-    <t>72,36%</t>
-  </si>
-  <si>
-    <t>85,34%</t>
-  </si>
-  <si>
-    <t>81,26%</t>
-  </si>
-  <si>
-    <t>76,55%</t>
-  </si>
-  <si>
-    <t>85,64%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>23,32%</t>
-  </si>
-  <si>
-    <t>18,97%</t>
-  </si>
-  <si>
-    <t>15,91%</t>
-  </si>
-  <si>
-    <t>22,56%</t>
-  </si>
-  <si>
-    <t>19,26%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>21,55%</t>
-  </si>
-  <si>
-    <t>80,45%</t>
-  </si>
-  <si>
-    <t>76,68%</t>
-  </si>
-  <si>
-    <t>83,79%</t>
-  </si>
-  <si>
-    <t>81,03%</t>
-  </si>
-  <si>
-    <t>77,44%</t>
-  </si>
-  <si>
-    <t>84,09%</t>
-  </si>
-  <si>
-    <t>80,74%</t>
-  </si>
-  <si>
-    <t>78,45%</t>
-  </si>
-  <si>
-    <t>83,16%</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al dentista fue por limpieza de boca en 2023 (Tasa respuesta: 58,54%)</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>57,38%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>41,23%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>32,68%</t>
-  </si>
-  <si>
-    <t>86,01%</t>
-  </si>
-  <si>
-    <t>42,62%</t>
-  </si>
-  <si>
-    <t>87,93%</t>
-  </si>
-  <si>
-    <t>58,77%</t>
-  </si>
-  <si>
-    <t>87,15%</t>
-  </si>
-  <si>
-    <t>67,32%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
-  </si>
-  <si>
-    <t>33,95%</t>
-  </si>
-  <si>
-    <t>22,67%</t>
-  </si>
-  <si>
-    <t>45,37%</t>
-  </si>
-  <si>
-    <t>35,8%</t>
-  </si>
-  <si>
-    <t>25,95%</t>
-  </si>
-  <si>
-    <t>47,75%</t>
-  </si>
-  <si>
-    <t>34,81%</t>
-  </si>
-  <si>
-    <t>26,33%</t>
-  </si>
-  <si>
-    <t>42,94%</t>
-  </si>
-  <si>
-    <t>66,05%</t>
-  </si>
-  <si>
-    <t>54,63%</t>
-  </si>
-  <si>
-    <t>77,33%</t>
-  </si>
-  <si>
     <t>64,2%</t>
   </si>
   <si>
-    <t>52,25%</t>
-  </si>
-  <si>
-    <t>74,05%</t>
+    <t>52,93%</t>
+  </si>
+  <si>
+    <t>74,5%</t>
   </si>
   <si>
     <t>65,19%</t>
   </si>
   <si>
-    <t>57,06%</t>
-  </si>
-  <si>
-    <t>73,67%</t>
+    <t>57,12%</t>
+  </si>
+  <si>
+    <t>73,01%</t>
   </si>
   <si>
     <t>44,54%</t>
   </si>
   <si>
-    <t>37,94%</t>
-  </si>
-  <si>
-    <t>51,38%</t>
+    <t>37,74%</t>
+  </si>
+  <si>
+    <t>52,22%</t>
   </si>
   <si>
     <t>37,98%</t>
   </si>
   <si>
-    <t>30,15%</t>
-  </si>
-  <si>
-    <t>46,07%</t>
+    <t>30,41%</t>
+  </si>
+  <si>
+    <t>45,86%</t>
   </si>
   <si>
     <t>41,82%</t>
   </si>
   <si>
-    <t>36,1%</t>
-  </si>
-  <si>
-    <t>46,47%</t>
+    <t>36,45%</t>
+  </si>
+  <si>
+    <t>46,67%</t>
   </si>
   <si>
     <t>55,46%</t>
   </si>
   <si>
-    <t>48,62%</t>
-  </si>
-  <si>
-    <t>62,06%</t>
+    <t>47,78%</t>
+  </si>
+  <si>
+    <t>62,26%</t>
   </si>
   <si>
     <t>62,02%</t>
   </si>
   <si>
-    <t>53,93%</t>
-  </si>
-  <si>
-    <t>69,85%</t>
+    <t>54,14%</t>
+  </si>
+  <si>
+    <t>69,59%</t>
   </si>
   <si>
     <t>58,18%</t>
   </si>
   <si>
-    <t>53,53%</t>
-  </si>
-  <si>
-    <t>63,9%</t>
+    <t>53,33%</t>
+  </si>
+  <si>
+    <t>63,55%</t>
   </si>
   <si>
     <t>21,83%</t>
   </si>
   <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>33,62%</t>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>32,39%</t>
   </si>
   <si>
     <t>20,4%</t>
   </si>
   <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>28,51%</t>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>28,12%</t>
   </si>
   <si>
     <t>21,14%</t>
   </si>
   <si>
-    <t>16,15%</t>
-  </si>
-  <si>
-    <t>27,48%</t>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>27,99%</t>
   </si>
   <si>
     <t>78,17%</t>
   </si>
   <si>
-    <t>66,38%</t>
-  </si>
-  <si>
-    <t>85,16%</t>
+    <t>67,61%</t>
+  </si>
+  <si>
+    <t>86,28%</t>
   </si>
   <si>
     <t>79,6%</t>
   </si>
   <si>
-    <t>71,49%</t>
-  </si>
-  <si>
-    <t>85,79%</t>
+    <t>71,88%</t>
+  </si>
+  <si>
+    <t>86,6%</t>
   </si>
   <si>
     <t>78,86%</t>
   </si>
   <si>
-    <t>72,52%</t>
-  </si>
-  <si>
-    <t>83,85%</t>
-  </si>
-  <si>
-    <t>30,29%</t>
-  </si>
-  <si>
-    <t>22,89%</t>
-  </si>
-  <si>
-    <t>39,59%</t>
+    <t>72,01%</t>
+  </si>
+  <si>
+    <t>84,36%</t>
+  </si>
+  <si>
+    <t>23,08%</t>
+  </si>
+  <si>
+    <t>39,33%</t>
   </si>
   <si>
     <t>34,42%</t>
   </si>
   <si>
-    <t>26,76%</t>
-  </si>
-  <si>
-    <t>43,34%</t>
+    <t>26,47%</t>
+  </si>
+  <si>
+    <t>43,24%</t>
   </si>
   <si>
     <t>32,32%</t>
   </si>
   <si>
-    <t>26,77%</t>
-  </si>
-  <si>
-    <t>38,18%</t>
-  </si>
-  <si>
-    <t>69,71%</t>
-  </si>
-  <si>
-    <t>60,41%</t>
-  </si>
-  <si>
-    <t>77,11%</t>
+    <t>26,35%</t>
+  </si>
+  <si>
+    <t>60,67%</t>
+  </si>
+  <si>
+    <t>76,92%</t>
   </si>
   <si>
     <t>65,58%</t>
   </si>
   <si>
-    <t>56,66%</t>
-  </si>
-  <si>
-    <t>73,24%</t>
+    <t>56,76%</t>
+  </si>
+  <si>
+    <t>73,53%</t>
   </si>
   <si>
     <t>67,68%</t>
   </si>
   <si>
-    <t>61,82%</t>
-  </si>
-  <si>
-    <t>73,23%</t>
+    <t>73,65%</t>
   </si>
   <si>
     <t>33,71%</t>
   </si>
   <si>
-    <t>29,47%</t>
-  </si>
-  <si>
-    <t>38,08%</t>
+    <t>29,64%</t>
+  </si>
+  <si>
+    <t>38,49%</t>
   </si>
   <si>
     <t>31,47%</t>
   </si>
   <si>
-    <t>27,38%</t>
-  </si>
-  <si>
-    <t>36,06%</t>
+    <t>27,42%</t>
+  </si>
+  <si>
+    <t>35,44%</t>
   </si>
   <si>
     <t>32,67%</t>
   </si>
   <si>
-    <t>29,89%</t>
-  </si>
-  <si>
-    <t>36,03%</t>
+    <t>29,58%</t>
+  </si>
+  <si>
+    <t>35,77%</t>
   </si>
   <si>
     <t>66,29%</t>
   </si>
   <si>
-    <t>61,92%</t>
-  </si>
-  <si>
-    <t>70,53%</t>
+    <t>61,51%</t>
+  </si>
+  <si>
+    <t>70,36%</t>
   </si>
   <si>
     <t>68,53%</t>
   </si>
   <si>
-    <t>63,94%</t>
-  </si>
-  <si>
-    <t>72,62%</t>
+    <t>64,56%</t>
+  </si>
+  <si>
+    <t>72,58%</t>
   </si>
   <si>
     <t>67,33%</t>
   </si>
   <si>
-    <t>63,97%</t>
-  </si>
-  <si>
-    <t>70,11%</t>
+    <t>64,23%</t>
+  </si>
+  <si>
+    <t>70,42%</t>
   </si>
 </sst>
 </file>
@@ -1710,7 +1692,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0259C0E-835E-440C-8211-8865BDA5AC5D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95262E71-684F-48CA-B561-605A584F74B7}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2773,7 +2755,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04A580EA-B6EC-4B04-8566-04BDFE95EEFF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61A86621-199E-4A0D-936C-D617BC80D2CF}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3085,10 +3067,10 @@
         <v>132</v>
       </c>
       <c r="P7" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3103,13 +3085,13 @@
         <v>58242</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="H8" s="7">
         <v>79</v>
@@ -3118,13 +3100,13 @@
         <v>57283</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="M8" s="7">
         <v>161</v>
@@ -3133,13 +3115,13 @@
         <v>115525</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="P8" s="7" t="s">
-        <v>142</v>
-      </c>
       <c r="Q8" s="7" t="s">
-        <v>143</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3207,13 +3189,13 @@
         <v>7241</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="H10" s="7">
         <v>7</v>
@@ -3222,13 +3204,13 @@
         <v>4511</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="M10" s="7">
         <v>18</v>
@@ -3240,10 +3222,10 @@
         <v>27</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3258,13 +3240,13 @@
         <v>107465</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="H11" s="7">
         <v>162</v>
@@ -3273,13 +3255,13 @@
         <v>107342</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="M11" s="7">
         <v>319</v>
@@ -3291,10 +3273,10 @@
         <v>36</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3362,13 +3344,13 @@
         <v>2184</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>162</v>
       </c>
       <c r="H13" s="7">
         <v>7</v>
@@ -3377,13 +3359,13 @@
         <v>4443</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="M13" s="7">
         <v>10</v>
@@ -3392,13 +3374,13 @@
         <v>6627</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3413,13 +3395,13 @@
         <v>77569</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>171</v>
       </c>
       <c r="H14" s="7">
         <v>108</v>
@@ -3428,13 +3410,13 @@
         <v>70054</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>174</v>
       </c>
       <c r="M14" s="7">
         <v>228</v>
@@ -3443,13 +3425,13 @@
         <v>147623</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3517,13 +3499,13 @@
         <v>9827</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>180</v>
       </c>
       <c r="H16" s="7">
         <v>10</v>
@@ -3532,13 +3514,13 @@
         <v>7663</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>183</v>
       </c>
       <c r="M16" s="7">
         <v>23</v>
@@ -3547,13 +3529,13 @@
         <v>17490</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3568,13 +3550,13 @@
         <v>86474</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>189</v>
       </c>
       <c r="H17" s="7">
         <v>110</v>
@@ -3583,13 +3565,13 @@
         <v>85314</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>192</v>
       </c>
       <c r="M17" s="7">
         <v>228</v>
@@ -3598,13 +3580,13 @@
         <v>171787</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3672,13 +3654,13 @@
         <v>23211</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>198</v>
       </c>
       <c r="H19" s="7">
         <v>29</v>
@@ -3687,13 +3669,13 @@
         <v>20361</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>201</v>
       </c>
       <c r="M19" s="7">
         <v>62</v>
@@ -3702,13 +3684,13 @@
         <v>43572</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3723,13 +3705,13 @@
         <v>342791</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>207</v>
       </c>
       <c r="H20" s="7">
         <v>474</v>
@@ -3738,13 +3720,13 @@
         <v>332883</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>210</v>
       </c>
       <c r="M20" s="7">
         <v>965</v>
@@ -3753,13 +3735,13 @@
         <v>675674</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3836,7 +3818,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6565A3CC-24F6-4C10-B56A-564135CD256C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F505D63-83D6-43C1-A431-AA5DE4A78D4E}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3853,7 +3835,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3960,13 +3942,13 @@
         <v>1046</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -3975,13 +3957,13 @@
         <v>1030</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
@@ -3990,13 +3972,13 @@
         <v>2076</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4011,10 +3993,10 @@
         <v>14431</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
@@ -4026,10 +4008,10 @@
         <v>13972</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>19</v>
@@ -4041,10 +4023,10 @@
         <v>28403</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>19</v>
@@ -4115,13 +4097,13 @@
         <v>15609</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>229</v>
       </c>
       <c r="H7" s="7">
         <v>15</v>
@@ -4130,13 +4112,13 @@
         <v>10695</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>232</v>
       </c>
       <c r="M7" s="7">
         <v>35</v>
@@ -4145,13 +4127,13 @@
         <v>26304</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4166,13 +4148,13 @@
         <v>44711</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>236</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>238</v>
       </c>
       <c r="H8" s="7">
         <v>67</v>
@@ -4181,13 +4163,13 @@
         <v>45143</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>239</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>241</v>
       </c>
       <c r="M8" s="7">
         <v>126</v>
@@ -4196,13 +4178,13 @@
         <v>89854</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4270,13 +4252,13 @@
         <v>21295</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>245</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>246</v>
       </c>
       <c r="H10" s="7">
         <v>34</v>
@@ -4285,13 +4267,13 @@
         <v>21373</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>249</v>
       </c>
       <c r="M10" s="7">
         <v>65</v>
@@ -4300,13 +4282,13 @@
         <v>42668</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>251</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4321,13 +4303,13 @@
         <v>87297</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>97</v>
       </c>
       <c r="H11" s="7">
         <v>132</v>
@@ -4428,10 +4410,10 @@
         <v>261</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>262</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>263</v>
       </c>
       <c r="H13" s="7">
         <v>21</v>
@@ -4440,13 +4422,13 @@
         <v>13026</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>265</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>266</v>
       </c>
       <c r="M13" s="7">
         <v>43</v>
@@ -4455,13 +4437,13 @@
         <v>29225</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>268</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4476,13 +4458,13 @@
         <v>60663</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>271</v>
-      </c>
       <c r="G14" s="7" t="s">
-        <v>272</v>
+        <v>56</v>
       </c>
       <c r="H14" s="7">
         <v>98</v>
@@ -4491,13 +4473,13 @@
         <v>62562</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>273</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>275</v>
       </c>
       <c r="M14" s="7">
         <v>187</v>
@@ -4506,13 +4488,13 @@
         <v>123226</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>276</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4580,13 +4562,13 @@
         <v>17789</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>279</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>281</v>
       </c>
       <c r="H16" s="7">
         <v>30</v>
@@ -4595,13 +4577,13 @@
         <v>22654</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>282</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>284</v>
       </c>
       <c r="M16" s="7">
         <v>54</v>
@@ -4610,13 +4592,13 @@
         <v>40443</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>285</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4631,13 +4613,13 @@
         <v>88968</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>288</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>290</v>
       </c>
       <c r="H17" s="7">
         <v>114</v>
@@ -4646,13 +4628,13 @@
         <v>86353</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>291</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>293</v>
       </c>
       <c r="M17" s="7">
         <v>235</v>
@@ -4661,13 +4643,13 @@
         <v>175321</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>294</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4735,13 +4717,13 @@
         <v>71938</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>297</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>299</v>
       </c>
       <c r="H19" s="7">
         <v>101</v>
@@ -4750,13 +4732,13 @@
         <v>68778</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>300</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>302</v>
       </c>
       <c r="M19" s="7">
         <v>199</v>
@@ -4765,13 +4747,13 @@
         <v>140716</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>303</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4786,13 +4768,13 @@
         <v>296070</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>306</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>308</v>
       </c>
       <c r="H20" s="7">
         <v>426</v>
@@ -4801,13 +4783,13 @@
         <v>293840</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>309</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>311</v>
       </c>
       <c r="M20" s="7">
         <v>838</v>
@@ -4816,13 +4798,13 @@
         <v>589910</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>312</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4899,7 +4881,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6A7B5A0-30FF-4A05-8398-D136F77E87B6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37844E83-7654-4D4B-BB29-9270B1F7CE02}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4916,7 +4898,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5023,13 +5005,13 @@
         <v>910</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
@@ -5038,13 +5020,13 @@
         <v>1149</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="M4" s="7">
         <v>3</v>
@@ -5053,13 +5035,13 @@
         <v>2059</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>320</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5074,10 +5056,10 @@
         <v>5595</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
@@ -5089,10 +5071,10 @@
         <v>8370</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>19</v>
@@ -5104,13 +5086,13 @@
         <v>13964</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>327</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5178,13 +5160,13 @@
         <v>24361</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>330</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>332</v>
       </c>
       <c r="H7" s="7">
         <v>30</v>
@@ -5193,13 +5175,13 @@
         <v>22380</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>333</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>335</v>
       </c>
       <c r="M7" s="7">
         <v>60</v>
@@ -5208,13 +5190,13 @@
         <v>46741</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>336</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>337</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5229,13 +5211,13 @@
         <v>47391</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>339</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>341</v>
       </c>
       <c r="H8" s="7">
         <v>65</v>
@@ -5244,13 +5226,13 @@
         <v>40142</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>342</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>344</v>
       </c>
       <c r="M8" s="7">
         <v>119</v>
@@ -5259,13 +5241,13 @@
         <v>87533</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>345</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5333,13 +5315,13 @@
         <v>74361</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>348</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>350</v>
       </c>
       <c r="H10" s="7">
         <v>59</v>
@@ -5348,13 +5330,13 @@
         <v>45001</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>351</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>352</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>353</v>
       </c>
       <c r="M10" s="7">
         <v>152</v>
@@ -5363,13 +5345,13 @@
         <v>119362</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>354</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>355</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5384,13 +5366,13 @@
         <v>92589</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>357</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>358</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>359</v>
       </c>
       <c r="H11" s="7">
         <v>104</v>
@@ -5399,13 +5381,13 @@
         <v>73499</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>360</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>361</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>362</v>
       </c>
       <c r="M11" s="7">
         <v>222</v>
@@ -5414,13 +5396,13 @@
         <v>166087</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>363</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>364</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5488,13 +5470,13 @@
         <v>24407</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>366</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>367</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>368</v>
       </c>
       <c r="H13" s="7">
         <v>28</v>
@@ -5503,13 +5485,13 @@
         <v>21483</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>369</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>370</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>371</v>
       </c>
       <c r="M13" s="7">
         <v>50</v>
@@ -5518,13 +5500,13 @@
         <v>45891</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>372</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>373</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5539,13 +5521,13 @@
         <v>87414</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>375</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>376</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>377</v>
       </c>
       <c r="H14" s="7">
         <v>114</v>
@@ -5554,13 +5536,13 @@
         <v>83803</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>378</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>379</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>380</v>
       </c>
       <c r="M14" s="7">
         <v>220</v>
@@ -5569,13 +5551,13 @@
         <v>171216</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>381</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>382</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5643,13 +5625,13 @@
         <v>32644</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>384</v>
+        <v>216</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="H16" s="7">
         <v>46</v>
@@ -5658,13 +5640,13 @@
         <v>35867</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="M16" s="7">
         <v>86</v>
@@ -5673,13 +5655,13 @@
         <v>68511</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>392</v>
+        <v>347</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5694,13 +5676,13 @@
         <v>75131</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>393</v>
+        <v>222</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="H17" s="7">
         <v>93</v>
@@ -5709,13 +5691,13 @@
         <v>68330</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="M17" s="7">
         <v>191</v>
@@ -5724,13 +5706,13 @@
         <v>143461</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>400</v>
+        <v>357</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5798,13 +5780,13 @@
         <v>156683</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="H19" s="7">
         <v>165</v>
@@ -5813,13 +5795,13 @@
         <v>125881</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="M19" s="7">
         <v>351</v>
@@ -5828,13 +5810,13 @@
         <v>282564</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5849,13 +5831,13 @@
         <v>308120</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="H20" s="7">
         <v>389</v>
@@ -5864,13 +5846,13 @@
         <v>274143</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="M20" s="7">
         <v>773</v>
@@ -5879,13 +5861,13 @@
         <v>582262</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
